--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE855F45-02CB-4251-9994-26FFDF0448A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D26F27-637C-4E27-B6FB-70CCC9EFAF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -198,6 +198,126 @@
   </si>
   <si>
     <t>Business Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VENDOR - Router  </t>
+  </si>
+  <si>
+    <t>VENDOR - Switch</t>
+  </si>
+  <si>
+    <t>VENDOR - Cables</t>
+  </si>
+  <si>
+    <t>VENDOR - Wi-Fi Modem</t>
+  </si>
+  <si>
+    <t>router compatibility protocols</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Bandwidth</t>
+  </si>
+  <si>
+    <t>Symmetry</t>
+  </si>
+  <si>
+    <t>Access Technology</t>
+  </si>
+  <si>
+    <t>Symmetrical Bandwidth</t>
+  </si>
+  <si>
+    <t>Contention Ratio</t>
+  </si>
+  <si>
+    <t>Network Segmentation</t>
+  </si>
+  <si>
+    <t>Static IP Addressing</t>
+  </si>
+  <si>
+    <t>Fault Restoration Target</t>
+  </si>
+  <si>
+    <t>Failover / Redundancy</t>
+  </si>
+  <si>
+    <t>WAN Port Throughput Capacity</t>
+  </si>
+  <si>
+    <t>NAT and Firewall Processing Throughput</t>
+  </si>
+  <si>
+    <t>QoS and Traffic Shaping Capability</t>
+  </si>
+  <si>
+    <t>Multiple SSID to VLAN Mapping</t>
+  </si>
+  <si>
+    <t>Integrated Captive Portal Functionality</t>
+  </si>
+  <si>
+    <t>Layer 2 or Layer 3 Managed Switch Capability</t>
+  </si>
+  <si>
+    <t>SFP/SFP+ Uplink Ports for Router Connection</t>
+  </si>
+  <si>
+    <t>Quality of Service (QoS) Implementation</t>
+  </si>
+  <si>
+    <t>Remote Management and Monitoring Features</t>
+  </si>
+  <si>
+    <t>Enterprise Grade Security Features</t>
+  </si>
+  <si>
+    <t>Wi-Fi Standard</t>
+  </si>
+  <si>
+    <t>VPN Gateway Functionality</t>
+  </si>
+  <si>
+    <t>DHCP and Concurrent Session Management</t>
+  </si>
+  <si>
+    <t>Standards Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Backplane Switching Capacity </t>
+  </si>
+  <si>
+    <t>VLAN Support  and Port Isolation</t>
+  </si>
+  <si>
+    <t>Wired Enterprise Access Point Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gigabit Ethernet Port Density</t>
+  </si>
+  <si>
+    <t>Cable Category</t>
+  </si>
+  <si>
+    <t>Shielding Type</t>
+  </si>
+  <si>
+    <t>PoE Compatibility and Thermal Stability</t>
+  </si>
+  <si>
+    <t>10 Gigabit Ethernet Support</t>
+  </si>
+  <si>
+    <t>Pure Copper Conductors</t>
+  </si>
+  <si>
+    <t>Australian Standards Compliance</t>
+  </si>
+  <si>
+    <t>Certified Installation and Testing Requirements</t>
   </si>
 </sst>
 </file>
@@ -289,19 +409,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -311,9 +425,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -326,14 +437,20 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
@@ -677,319 +794,177 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="8.88671875" style="3"/>
-    <col min="9" max="9" width="10.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="3" customWidth="1"/>
-    <col min="12" max="14" width="8.88671875" style="3"/>
-    <col min="15" max="15" width="14.77734375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="8" width="8.88671875" style="2"/>
+    <col min="9" max="9" width="10.88671875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="2" customWidth="1"/>
+    <col min="12" max="14" width="8.88671875" style="2"/>
+    <col min="15" max="15" width="14.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -999,67 +974,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="2" max="3" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1072,9 +1050,10 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1087,6 +1066,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1095,12 +1075,412 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:17" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" spans="1:17" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1121,84 +1501,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D26F27-637C-4E27-B6FB-70CCC9EFAF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89941CD8-158E-4C8D-A5EF-18B42DAED0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
     <sheet name="ISP" sheetId="5" r:id="rId2"/>
-    <sheet name="Network" sheetId="6" r:id="rId3"/>
+    <sheet name="HW-Net" sheetId="6" r:id="rId3"/>
     <sheet name="ReqVSMatrix" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="121">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Price / License per year (25 users)</t>
   </si>
   <si>
-    <t>Other services</t>
-  </si>
-  <si>
     <t>Format compatibility</t>
   </si>
   <si>
@@ -318,12 +315,121 @@
   </si>
   <si>
     <t>Certified Installation and Testing Requirements</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> advanced Role-Based Access Control (RBAC)</t>
+  </si>
+  <si>
+    <t>Google Vault
+A third-party solution is needed for daily point-in-time backups</t>
+  </si>
+  <si>
+    <t>Included full suite web-based applications</t>
+  </si>
+  <si>
+    <t>AI Aplicactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gemini AI assistant</t>
+  </si>
+  <si>
+    <t>Security Centre
+investigation tools
+security health page</t>
+  </si>
+  <si>
+    <t>Admin Console</t>
+  </si>
+  <si>
+    <t>TLS Client-side encryption</t>
+  </si>
+  <si>
+    <t>Advanced Encryption Standard (AES)
+Client-side encryption</t>
+  </si>
+  <si>
+    <t>Google Vault
+automatic data redundancy
+A third-party tool is needed for point-in-time backups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> past state  version history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real-time
+multi-user collaboration </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> offline access</t>
+  </si>
+  <si>
+    <t>Microsoft Office formats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not capped </t>
+  </si>
+  <si>
+    <t>not capped</t>
+  </si>
+  <si>
+    <t>No 
+24/7
+phone, email, and chat</t>
+  </si>
+  <si>
+    <t>24/7
+phone, email, and chat</t>
+  </si>
+  <si>
+    <t>customer onboarding support, domain verification assistance, licence management</t>
+  </si>
+  <si>
+    <t>Free access 
+14-day trial</t>
+  </si>
+  <si>
+    <t>Annual cancellation
+No fees</t>
+  </si>
+  <si>
+    <t>50TB</t>
+  </si>
+  <si>
+    <t>30% off for 3 months
+16% with one-year commitment
+25% firs years with Visa</t>
+  </si>
+  <si>
+    <t>cloud-based management interface</t>
+  </si>
+  <si>
+    <t>Communication Apps</t>
+  </si>
+  <si>
+    <t>own email-domain .com
+gmail
+meet
+chat
+calendar
+contacts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -451,6 +557,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,27 +901,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="8.88671875" style="2"/>
+    <col min="1" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="13.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="18.5546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" style="2" customWidth="1"/>
-    <col min="12" max="14" width="8.88671875" style="2"/>
+    <col min="12" max="12" width="14.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="14.77734375" style="2" customWidth="1"/>
     <col min="16" max="16" width="11.77734375" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="2"/>
+    <col min="17" max="17" width="13" style="2" customWidth="1"/>
+    <col min="18" max="18" width="23.21875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -821,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>4</v>
@@ -848,32 +972,78 @@
         <v>10</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -889,16 +1059,24 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+    </row>
+    <row r="6" spans="1:18" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>39</v>
@@ -907,51 +1085,77 @@
         <v>40</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="18">
+        <v>5940</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -966,6 +1170,68 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
+    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="6:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F18" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F19" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F22" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F24" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F25" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F26" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="6:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="F27" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="6:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F28" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="6:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="6:6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -974,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,52 +1258,55 @@
     <col min="14" max="14" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="J1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1051,9 +1320,10 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1067,6 +1337,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1075,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,67 +1366,73 @@
     <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.88671875" style="2" customWidth="1"/>
     <col min="12" max="12" width="14" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" style="2" customWidth="1"/>
     <col min="15" max="15" width="12.109375" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="2"/>
+    <col min="16" max="16" width="14" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
@@ -1172,9 +1449,10 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-    </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -1191,59 +1469,63 @@
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+    </row>
+    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1258,9 +1540,10 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1275,59 +1558,63 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="P7" s="7"/>
+    </row>
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+    </row>
+    <row r="10" spans="1:18" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    </row>
+    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1341,9 +1628,10 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1357,53 +1645,57 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-    </row>
-    <row r="14" spans="1:17" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+    </row>
+    <row r="14" spans="1:18" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+    </row>
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1416,9 +1708,10 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1431,38 +1724,42 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P19"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -1502,84 +1799,84 @@
   <sheetData>
     <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89941CD8-158E-4C8D-A5EF-18B42DAED0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DB4E03-6378-4904-B776-EB440A6008AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="121">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -901,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,64 +1174,125 @@
     <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="6:6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E18" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="F18" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E19" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="F19" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E20" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="F20" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E21" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="F21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E22" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F22" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E23" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="F23" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="6:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E24" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F24" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E25" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="F25" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="6:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E26" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="F26" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="6:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E27" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="F27" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="6:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E28" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="F28" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="6:6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="6:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E30" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E31" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E32" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E33" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E34" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amali\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DB4E03-6378-4904-B776-EB440A6008AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51837CA1-EF41-4E71-B80E-F66DE526D8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="172">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -421,6 +421,160 @@
 chat
 calendar
 contacts</t>
+  </si>
+  <si>
+    <t>1TB per user (300 users)</t>
+  </si>
+  <si>
+    <t>Azure AD / Microsoft Entra IDassign administrative roles (Global Admin, etc.) with granular access control.</t>
+  </si>
+  <si>
+    <t>Backup of OneDrive, SharePoint, and Exchange Online data. (1 year retention data)</t>
+  </si>
+  <si>
+    <t>unified audit log of user and admin</t>
+  </si>
+  <si>
+    <t>Microsoft Entra ID</t>
+  </si>
+  <si>
+    <t>TLS and SSL for encrypted data transfer between clients and servers</t>
+  </si>
+  <si>
+    <t>Encryption for data at rest and data in transit. Optional: Azure Key Vault</t>
+  </si>
+  <si>
+    <t>Comparison table — Telstra (Business Fibre 400–1000 / Enterprise Ethernet) vs Optus (1 Gbps symmetric + SD-WAN)</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Telstra — Business Fibre 400–1000 / Enterprise Ethernet</t>
+  </si>
+  <si>
+    <t>Optus — Business Fibre 1 Gbps (sym.) + Managed SD-WAN</t>
+  </si>
+  <si>
+    <t>Core technology type</t>
+  </si>
+  <si>
+    <t>Enterprise-grade fibre / Ethernet access (nbn™ Enterprise Ethernet or Telstra Enterprise Ethernet). Designed for symmetrical, low-latency Ethernet connectivity. Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Optus provides direct fibre and nbn™ Enterprise Ethernet options with symmetric speeds up to 1 Gbps (and higher). SD-WAN is offered as a managed overlay for routing/optimisation. optus.com.au+1</t>
+  </si>
+  <si>
+    <t>Router compatibility / protocols</t>
+  </si>
+  <si>
+    <t>Supports standard enterprise protocols (BGP for routing, VLANs, 802.1q, QoS, Ethernet handoffs). Provider typically supports BGP/MPLS handoffs for WAN integrations. (Customer router/firewall compatibility required.) Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Optus Managed SD-WAN supports common enterprise protocols (BGP, policy-based routing, overlay/VPNs) and is delivered with compatible CPE (Aruba/HPE, Viptela, etc.) or virtual appliances. optus.com.au+1</t>
+  </si>
+  <si>
+    <t>Low-latency Ethernet service suitable for real-time apps; typical metro latency is low (single-digit ms intra-city) — Telstra positions Enterprise Ethernet as low-latency for cloud/voice. Exact ms depends on route/location. Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Managed SD-WAN + direct fibre is optimised for low latency and dynamic path selection; SD-WAN can route traffic via the lowest-latency path. Actual latency depends on path and location. optus.com.au+1</t>
+  </si>
+  <si>
+    <t>Dedicated vs. contended access</t>
+  </si>
+  <si>
+    <t>Typically dedicated / enterprise Ethernet for Telstra Enterprise services (guaranteed bandwidth, symmetrical). Some nbn™ business-grade tiers can be contended — but Enterprise Ethernet / Telstra EA is dedicated. Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Optus direct fibre / Enterprise Ethernet options are dedicated / symmetrical for business plans. SD-WAN sits on top of those links (can use multiple links including contended links for path diversity). optus.com.au+1</t>
+  </si>
+  <si>
+    <t>Service scalability</t>
+  </si>
+  <si>
+    <t>Highly scalable — Telstra offers from 100 Mbps up to multi-Gbps (and point-to-point / multipoint Ethernet) with national reach; capacity can be upgraded via account manager/ordering. Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Designed to scale (50 Mbps → 1 Gbps → multi-Gbps). Optus supports flexible bandwidth tiers and SD-WAN makes adding or rebalancing sites simpler. optus.com.au+1</t>
+  </si>
+  <si>
+    <t>SLA tiers available (Standard Restoration / SLA Premium). SLAs define response and restoration targets, credits for downtime. Telstra publishes SLA documents for enterprise Ethernet/EA. Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Optus offers enterprise SLAs for its direct fibre/Enterprise products and managed SD-WAN; details provided in enterprise contracts/factsheets (portal/enterprise sales). optus.com.au+1</t>
+  </si>
+  <si>
+    <t>Guaranteed uptime %</t>
+  </si>
+  <si>
+    <t>SLA guarantees vary by product and tier; enterprise-grade Ethernet SLAs typically target very high availability (example: 99.9%+ depending on plan and redundancy options). See Telstra SLA documents for exact % per tier. Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Optus enterprise SLAs target high availability for direct fibre; specific uptime percentages (e.g., 99.9% or contractual figure) are stated in the service schedule for the chosen product. optus.com.au+1</t>
+  </si>
+  <si>
+    <t>Business support</t>
+  </si>
+  <si>
+    <t>24/7 enterprise support options, dedicated account teams and escalations for enterprise customers; premium support available as part of enterprise agreements. Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Optus provides enterprise support, managed service teams for SD-WAN, and an Enterprise One portal for monitoring and tickets. 24/7 support available on enterprise contracts. optus.com.au+1</t>
+  </si>
+  <si>
+    <t>MTTR is specified in SLA tiers (Standard vs Premium restoration). Telstra’s SLA PDF outlines restoration/response timeframes by priority — MTTR depends on chosen SLA. Telstra.com</t>
+  </si>
+  <si>
+    <t>Optus states SLA response/restoration targets in enterprise service agreements; managed SD-WAN can reduce effective recovery time through automated path failover, but contractual MTTR varies by tier. cdn.optusdigital.com+1</t>
+  </si>
+  <si>
+    <t>Network redundancy &amp; failover</t>
+  </si>
+  <si>
+    <t>Telstra supports redundant architectures (dual homing, diverse paths, 4G/5G backup options) and can provide multi-link resilience / national Ethernet diversity for enterprise customers. Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Optus SD-WAN provides dynamic path selection and supports multi-link (fibre + backup 4G/5G or secondary links) for resiliency; SD-WAN automatically fails over to best path. optus.com.au+1</t>
+  </si>
+  <si>
+    <t>Trial &amp; demo</t>
+  </si>
+  <si>
+    <t>Enterprise trials / proofs of concept are offered on a case-by-case basis through Telstra Business Technology Centres and enterprise sales teams (engage Telstra rep). Promotional trial offerings sometimes available. Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Optus offers customer demos and POCs for SD-WAN and enterprise services via their sales/solutions teams and partner channel (factsheets mention agility and POC capability). cdn.optusdigital.com+1</t>
+  </si>
+  <si>
+    <t>Promotions &amp; discounts</t>
+  </si>
+  <si>
+    <t>Telstra runs promotional bundles and volume discounts for multi-site or bulk purchases; business-grade offers (e.g., $0 install for certain terms) and minimum contract lengths can apply — check product offer pages. Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Optus often provides tailored commercial discounts for enterprise customers (volume pricing, multi-year contracts, bundling with SD-WAN). Promotions depend on sales negotiation. optus.com.au+1</t>
+  </si>
+  <si>
+    <t>Provider recognition in market</t>
+  </si>
+  <si>
+    <t>Telstra is widely recognised for best nationwide coverage and strong enterprise footprint in Australia. Market leader for geographic reach. Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Optus is recognised for competitive pricing, strong metro fibre footprint, and a growing enterprise SD-WAN/SASE portfolio. Strong option in urban/metro areas. optus.com.au+1</t>
+  </si>
+  <si>
+    <t>Contract term &amp; exit fees</t>
+  </si>
+  <si>
+    <t>Enterprise contracts commonly include fixed terms (24–36 months typical for promotion offers); exit/cancellation fees and early termination charges are defined in the contract and Telstra’s customer terms/SLA documents. Telstra.com+1</t>
+  </si>
+  <si>
+    <t>Optus enterprise agreements typically have fixed terms (often 24–36 months) with contract-specific termination charges; details provided in the service order and contract. optus.com.au+1</t>
+  </si>
+  <si>
+    <t>Included full  suite desktop-based applications 
+Access to web and mobile versions of Office apps Word, Excel, PowerPoint</t>
   </si>
 </sst>
 </file>
@@ -430,7 +584,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,6 +606,22 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -512,12 +682,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,19 +716,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -567,8 +725,27 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -903,272 +1080,290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D14" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="13.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="18.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.21875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13" style="2" customWidth="1"/>
-    <col min="18" max="18" width="23.21875" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.21875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:18" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="B3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="13">
         <v>5940</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="13">
         <v>0</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7" t="s">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1176,120 +1371,120 @@
     <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="5:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="5:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="5:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="34" spans="5:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1301,14 +1496,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
     <col min="2" max="3" width="10.5546875" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -1319,524 +1515,692 @@
     <col min="14" max="14" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
+    <row r="2" spans="1:15" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D27" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D28" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D29" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C13" r:id="rId1" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/nbn/nbn-enterprise-ethernet?utm_source=chatgpt.com" xr:uid="{181A7FB0-E797-48C0-AC12-FD05A4266842}"/>
+    <hyperlink ref="D13" r:id="rId2" display="https://www.optus.com.au/business/broadband-nbn/office-broadband/evolve-internet?utm_source=chatgpt.com" xr:uid="{AD205870-A8ED-4891-BBB2-895355BF06C3}"/>
+    <hyperlink ref="C14" r:id="rId3" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/private-networks/national-ethernet?utm_source=chatgpt.com" xr:uid="{2DB84F75-5E71-40F1-A12C-F819465BB63C}"/>
+    <hyperlink ref="D14" r:id="rId4" display="https://www.optus.com.au/enterprise/networking-security/network-solutions/wan/managed-sdwan/hpe-aruba-networking?utm_source=chatgpt.com" xr:uid="{E6816FA3-BF1B-4CBC-B9F4-89A4905D35B0}"/>
+    <hyperlink ref="C15" r:id="rId5" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/private-networks/national-ethernet?utm_source=chatgpt.com" xr:uid="{47EF2FF2-F43A-4DCC-B72D-F9130F6C4D99}"/>
+    <hyperlink ref="D15" r:id="rId6" display="https://www.optus.com.au/enterprise/networking-security/network-solutions/wan/managed-sdwan/hpe-aruba-networking?utm_source=chatgpt.com" xr:uid="{A7F4CFF0-7371-419C-9D28-47307720F54F}"/>
+    <hyperlink ref="C16" r:id="rId7" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/nbn/nbn-enterprise-ethernet?utm_source=chatgpt.com" xr:uid="{E88ECF21-03D1-4FFB-B872-DCC470222A9B}"/>
+    <hyperlink ref="D16" r:id="rId8" display="https://www.optus.com.au/business/broadband-nbn/office-broadband/evolve-internet?utm_source=chatgpt.com" xr:uid="{4FD031C2-A8D4-4647-8AE5-153BD5545941}"/>
+    <hyperlink ref="C17" r:id="rId9" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/private-networks/national-ethernet?utm_source=chatgpt.com" xr:uid="{4D59769D-34F3-438A-B484-B826F2F4ED60}"/>
+    <hyperlink ref="D17" r:id="rId10" display="https://www.optus.com.au/business/broadband-nbn/office-broadband/evolve-internet?utm_source=chatgpt.com" xr:uid="{6FB3CCFB-07D0-47FE-B3A4-A9FC774501F3}"/>
+    <hyperlink ref="C18" r:id="rId11" display="https://www.telstra.com.au/content/dam/tcom/our-customer-terms/business-government/pdf/sla-premium-after-8-july-2022.pdf?utm_source=chatgpt.com" xr:uid="{439FCA4B-DAFB-452B-8ACD-7A8DFF246A75}"/>
+    <hyperlink ref="D18" r:id="rId12" display="https://www.optus.com.au/enterprise/networking-security/network-connectivity?utm_source=chatgpt.com" xr:uid="{48A5D68A-9F06-4D47-B53B-987221F9EBE8}"/>
+    <hyperlink ref="C19" r:id="rId13" display="https://www.telstra.com.au/content/dam/tcom/our-customer-terms/business-government/pdf/sla-premium-after-8-july-2022.pdf?utm_source=chatgpt.com" xr:uid="{8DD3796F-A9B7-49DF-88EE-DAF063E60E5A}"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://www.optus.com.au/enterprise/networking-security/network-connectivity?utm_source=chatgpt.com" xr:uid="{ABA5FD3A-3B7A-4BA1-AEC7-E7F4B1D95DA2}"/>
+    <hyperlink ref="C20" r:id="rId15" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/internet-solutions?utm_source=chatgpt.com" xr:uid="{D0B93633-B54A-497A-A0F7-FA77D6C5E016}"/>
+    <hyperlink ref="D20" r:id="rId16" display="https://www.optus.com.au/enterprise/networking-security/network-connectivity?utm_source=chatgpt.com" xr:uid="{33523B5F-6D1D-4CBB-888A-52F8800F2037}"/>
+    <hyperlink ref="C21" r:id="rId17" display="https://www.telstra.com.au/content/dam/tcom/our-customer-terms/business-government/pdf/sla-premium-after-8-july-2022.pdf?utm_source=chatgpt.com" xr:uid="{E2486B12-C1D7-49A5-9B8B-5B3774E8B6DB}"/>
+    <hyperlink ref="D21" r:id="rId18" display="https://cdn.optusdigital.com/opfiles/Business/PDFs/Optus_Fusion_SD_WAN _Factsheet.pdf?utm_source=chatgpt.com" xr:uid="{24C9CE54-889C-4CE2-948F-D878B9B76F06}"/>
+    <hyperlink ref="C22" r:id="rId19" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/private-networks/national-ethernet?utm_source=chatgpt.com" xr:uid="{EF84FC8C-2C4B-4E24-99F1-0AEF11F9DBE6}"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://www.optus.com.au/enterprise/networking-security/network-solutions/wan/managed-sdwan/hpe-aruba-networking?utm_source=chatgpt.com" xr:uid="{3578BD29-27F7-4697-9DF2-1C8AF8D12BE0}"/>
+    <hyperlink ref="C23" r:id="rId21" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/nbn/nbn-enterprise-ethernet?utm_source=chatgpt.com" xr:uid="{53881372-6D72-4E2B-9135-9700BE85D5C8}"/>
+    <hyperlink ref="D23" r:id="rId22" display="https://cdn.optusdigital.com/opfiles/Business/PDFs/Optus_Fusion_SD_WAN _Factsheet.pdf?utm_source=chatgpt.com" xr:uid="{8FCF40BA-E42A-48F3-A268-842C3182DD0E}"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://www.telstra.com.au/small-business/internet/business-grade-fibre?utm_source=chatgpt.com" xr:uid="{BEC85B84-892E-415B-8E86-92D42FCA511B}"/>
+    <hyperlink ref="D24" r:id="rId24" display="https://www.optus.com.au/business/broadband-nbn/office-broadband/evolve-internet?utm_source=chatgpt.com" xr:uid="{644B46A3-0EAF-4C32-B123-5584851924A9}"/>
+    <hyperlink ref="C25" r:id="rId25" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/private-networks/national-ethernet?utm_source=chatgpt.com" xr:uid="{9F392AAC-64EC-4E2A-B8B5-EB4B277DCAE4}"/>
+    <hyperlink ref="D25" r:id="rId26" display="https://www.optus.com.au/enterprise/networking-security/network-connectivity?utm_source=chatgpt.com" xr:uid="{6799D3AF-5F75-4D76-B5C7-0E09A5F02FC5}"/>
+    <hyperlink ref="C26" r:id="rId27" display="https://www.telstra.com.au/content/dam/tcom/our-customer-terms/business-government/pdf/sla-premium-after-8-july-2022.pdf?utm_source=chatgpt.com" xr:uid="{87824470-2213-4CBE-A00E-222C4D3B7FC5}"/>
+    <hyperlink ref="D26" r:id="rId28" display="https://www.optus.com.au/enterprise/networking-security/network-connectivity?utm_source=chatgpt.com" xr:uid="{9E707B76-8A39-47E4-963B-FBEE13CC3731}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-    </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-    </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+    </row>
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-    </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+    </row>
+    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:18" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="16:16" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P19"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1859,84 +2223,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amali\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51837CA1-EF41-4E71-B80E-F66DE526D8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1422FE2E-7EBB-4C77-8E64-9ACCFF026CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="181">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -399,9 +399,6 @@
   <si>
     <t>Annual cancellation
 No fees</t>
-  </si>
-  <si>
-    <t>50TB</t>
   </si>
   <si>
     <t>30% off for 3 months
@@ -423,9 +420,6 @@
 contacts</t>
   </si>
   <si>
-    <t>1TB per user (300 users)</t>
-  </si>
-  <si>
     <t>Azure AD / Microsoft Entra IDassign administrative roles (Global Admin, etc.) with granular access control.</t>
   </si>
   <si>
@@ -575,6 +569,43 @@
   <si>
     <t>Included full  suite desktop-based applications 
 Access to web and mobile versions of Office apps Word, Excel, PowerPoint</t>
+  </si>
+  <si>
+    <t>Business Storage</t>
+  </si>
+  <si>
+    <t>125TB (5TB/user)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5TB
+1TB (base)+ 0.25TB (0.1TB/user)+ 3.75TB (add-on)  </t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Licencing</t>
+  </si>
+  <si>
+    <t>Google Workspace for Business (Plus)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft 365 for Business (Basic) + Office 365 Extra File Storage </t>
+  </si>
+  <si>
+    <t>Max users</t>
+  </si>
+  <si>
+    <t>user / month</t>
+  </si>
+  <si>
+    <t>$4,196.5 y
+$3,249 (base)
++
+$937.5</t>
+  </si>
+  <si>
+    <t>$5940 y</t>
   </si>
 </sst>
 </file>
@@ -725,12 +756,6 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -742,6 +767,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1078,16 +1109,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="10.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
@@ -1107,385 +1138,429 @@
     <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:18" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="11" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="13">
-        <v>5940</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B11" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H11" s="13">
         <v>0</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6" t="s">
+      <c r="L11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="12" spans="1:18" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="13" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:18" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="B12" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
     <row r="17" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E18" s="4" t="s">
+    <row r="18" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E24" s="4" t="s">
+    <row r="28" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="29" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E29" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E34" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="5:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E31" s="4" t="s">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="5:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E32" s="4" t="s">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="5:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E33" s="4" t="s">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="5:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E34" s="4" t="s">
-        <v>119</v>
+    <row r="38" spans="5:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E38" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1562,9 +1637,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="19" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1581,7 +1656,7 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -1599,173 +1674,173 @@
       <c r="O3" s="10"/>
     </row>
     <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>128</v>
+      <c r="B10" s="14" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="11" t="s">
+    </row>
+    <row r="13" spans="1:15" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="C13" s="16" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="18" t="s">
+    </row>
+    <row r="14" spans="1:15" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="C14" s="16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="18" t="s">
+    </row>
+    <row r="15" spans="1:15" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D15" s="16" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="18" t="s">
+    <row r="16" spans="1:15" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="C16" s="16" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="18" t="s">
+    </row>
+    <row r="17" spans="2:4" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="C17" s="16" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+      <c r="D17" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="18" t="s">
+    </row>
+    <row r="18" spans="2:4" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="18" t="s">
+    <row r="19" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="C19" s="16" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="18" t="s">
+    </row>
+    <row r="20" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="C20" s="16" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="18" t="s">
+    </row>
+    <row r="21" spans="2:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="18" t="s">
+    <row r="22" spans="2:4" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="C22" s="16" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C22" s="18" t="s">
+    </row>
+    <row r="23" spans="2:4" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="18" t="s">
+    </row>
+    <row r="24" spans="2:4" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="C24" s="16" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="17" t="s">
+      <c r="D24" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C24" s="18" t="s">
+    </row>
+    <row r="25" spans="2:4" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="C25" s="16" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="B25" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="18" t="s">
+    </row>
+    <row r="26" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
+      <c r="D26" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -2240,7 +2315,7 @@
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2254,7 +2329,7 @@
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1422FE2E-7EBB-4C77-8E64-9ACCFF026CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABC4619-F5EA-4A42-9383-5D3D7ACEC053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="195">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -362,9 +362,6 @@
     <t xml:space="preserve">Automatic </t>
   </si>
   <si>
-    <t xml:space="preserve"> past state  version history</t>
-  </si>
-  <si>
     <t xml:space="preserve">Real-time
 multi-user collaboration </t>
   </si>
@@ -391,10 +388,6 @@
   </si>
   <si>
     <t>customer onboarding support, domain verification assistance, licence management</t>
-  </si>
-  <si>
-    <t>Free access 
-14-day trial</t>
   </si>
   <si>
     <t>Annual cancellation
@@ -420,24 +413,9 @@
 contacts</t>
   </si>
   <si>
-    <t>Azure AD / Microsoft Entra IDassign administrative roles (Global Admin, etc.) with granular access control.</t>
-  </si>
-  <si>
-    <t>Backup of OneDrive, SharePoint, and Exchange Online data. (1 year retention data)</t>
-  </si>
-  <si>
-    <t>unified audit log of user and admin</t>
-  </si>
-  <si>
     <t>Microsoft Entra ID</t>
   </si>
   <si>
-    <t>TLS and SSL for encrypted data transfer between clients and servers</t>
-  </si>
-  <si>
-    <t>Encryption for data at rest and data in transit. Optional: Azure Key Vault</t>
-  </si>
-  <si>
     <t>Comparison table — Telstra (Business Fibre 400–1000 / Enterprise Ethernet) vs Optus (1 Gbps symmetric + SD-WAN)</t>
   </si>
   <si>
@@ -565,10 +543,6 @@
   </si>
   <si>
     <t>Optus enterprise agreements typically have fixed terms (often 24–36 months) with contract-specific termination charges; details provided in the service order and contract. optus.com.au+1</t>
-  </si>
-  <si>
-    <t>Included full  suite desktop-based applications 
-Access to web and mobile versions of Office apps Word, Excel, PowerPoint</t>
   </si>
   <si>
     <t>Business Storage</t>
@@ -599,13 +573,91 @@
     <t>user / month</t>
   </si>
   <si>
-    <t>$4,196.5 y
+    <t>Microsoft Entra ID ( Azure Active Directory)
+role-based access control (RBAC)</t>
+  </si>
+  <si>
+    <t>30-day retention
+Backup service pay-as-you-go service</t>
+  </si>
+  <si>
+    <t>Access to web and mobile versions of Office apps Word, Excel, PowerPoint</t>
+  </si>
+  <si>
+    <t>Microsoft 365 Compliance Center
+Entra ID audit logs.</t>
+  </si>
+  <si>
+    <t>HTTPS web services
+TLS Cliente-server encryption</t>
+  </si>
+  <si>
+    <t>Data centers: AES-256
+In transit: TLS and SSL</t>
+  </si>
+  <si>
+    <t>OneDrive and SharePoint
+automatic data redundancy</t>
+  </si>
+  <si>
+    <t>version history</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> version history</t>
+  </si>
+  <si>
+    <t>Real-time co-authoring and simultaneous editing via Office web</t>
+  </si>
+  <si>
+    <t>NO, browser-based only</t>
+  </si>
+  <si>
+    <t>Microsoft Office file formats</t>
+  </si>
+  <si>
+    <t>Microsoft 365 Admin Center</t>
+  </si>
+  <si>
+    <t>Microsoft Editor (grammar, spelling, and style suggestions)</t>
+  </si>
+  <si>
+    <t>own email-domain .com
+outlook
+teams
+calendar
+contacts</t>
+  </si>
+  <si>
+    <t>$4,196.5 yr
 $3,249 (base)
 +
 $937.5</t>
   </si>
   <si>
-    <t>$5940 y</t>
+    <t>$5,940 yr</t>
+  </si>
+  <si>
+    <t>not specified</t>
+  </si>
+  <si>
+    <t>local Australian Microsoft support centres
+business hours by
+phone</t>
+  </si>
+  <si>
+    <t>Premium Support Plans are optional and billed</t>
+  </si>
+  <si>
+    <t>99.9% SLA</t>
+  </si>
+  <si>
+    <t>feature enhancements</t>
+  </si>
+  <si>
+    <t>1-month</t>
+  </si>
+  <si>
+    <t>14-day trial</t>
   </si>
 </sst>
 </file>
@@ -655,12 +707,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -717,7 +775,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,6 +830,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1122,12 +1189,12 @@
     <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.44140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="12.21875" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" style="1" customWidth="1"/>
@@ -1143,13 +1210,13 @@
         <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -1157,10 +1224,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D2" s="3">
         <v>300</v>
@@ -1171,10 +1238,10 @@
         <v>93</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3">
         <v>300</v>
@@ -1185,7 +1252,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1233,17 +1300,17 @@
         <v>97</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>94</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -1258,7 +1325,7 @@
       <c r="G6" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="20" t="s">
         <v>101</v>
       </c>
       <c r="I6" s="6" t="s">
@@ -1271,64 +1338,82 @@
         <v>104</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O6" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>117</v>
+      <c r="P6" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>98</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>169</v>
+      <c r="E7" s="20" t="s">
+        <v>173</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
@@ -1385,57 +1470,77 @@
         <v>92</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="6" t="s">
         <v>111</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>112</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="3" t="s">
+        <v>191</v>
+      </c>
       <c r="J11" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>193</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1560,7 +1665,7 @@
     </row>
     <row r="38" spans="5:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1744,7 @@
     </row>
     <row r="2" spans="1:15" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1675,40 +1780,40 @@
     </row>
     <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B10" s="14" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="388.8" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="403.2" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="374.4" x14ac:dyDescent="0.3">
@@ -1716,32 +1821,32 @@
         <v>46</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="403.2" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B17" s="15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="345.6" x14ac:dyDescent="0.3">
@@ -1749,32 +1854,32 @@
         <v>49</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
       <c r="B19" s="15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
       <c r="B20" s="15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="409.6" x14ac:dyDescent="0.3">
@@ -1782,65 +1887,65 @@
         <v>41</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B22" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="388.8" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="388.8" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="331.2" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABC4619-F5EA-4A42-9383-5D3D7ACEC053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C1A7BF-980D-4803-989F-9716893A5E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="156">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -367,9 +367,6 @@
   </si>
   <si>
     <t xml:space="preserve"> offline access</t>
-  </si>
-  <si>
-    <t>Microsoft Office formats</t>
   </si>
   <si>
     <t xml:space="preserve">not capped </t>
@@ -416,135 +413,6 @@
     <t>Microsoft Entra ID</t>
   </si>
   <si>
-    <t>Comparison table — Telstra (Business Fibre 400–1000 / Enterprise Ethernet) vs Optus (1 Gbps symmetric + SD-WAN)</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Telstra — Business Fibre 400–1000 / Enterprise Ethernet</t>
-  </si>
-  <si>
-    <t>Optus — Business Fibre 1 Gbps (sym.) + Managed SD-WAN</t>
-  </si>
-  <si>
-    <t>Core technology type</t>
-  </si>
-  <si>
-    <t>Enterprise-grade fibre / Ethernet access (nbn™ Enterprise Ethernet or Telstra Enterprise Ethernet). Designed for symmetrical, low-latency Ethernet connectivity. Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Optus provides direct fibre and nbn™ Enterprise Ethernet options with symmetric speeds up to 1 Gbps (and higher). SD-WAN is offered as a managed overlay for routing/optimisation. optus.com.au+1</t>
-  </si>
-  <si>
-    <t>Router compatibility / protocols</t>
-  </si>
-  <si>
-    <t>Supports standard enterprise protocols (BGP for routing, VLANs, 802.1q, QoS, Ethernet handoffs). Provider typically supports BGP/MPLS handoffs for WAN integrations. (Customer router/firewall compatibility required.) Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Optus Managed SD-WAN supports common enterprise protocols (BGP, policy-based routing, overlay/VPNs) and is delivered with compatible CPE (Aruba/HPE, Viptela, etc.) or virtual appliances. optus.com.au+1</t>
-  </si>
-  <si>
-    <t>Low-latency Ethernet service suitable for real-time apps; typical metro latency is low (single-digit ms intra-city) — Telstra positions Enterprise Ethernet as low-latency for cloud/voice. Exact ms depends on route/location. Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Managed SD-WAN + direct fibre is optimised for low latency and dynamic path selection; SD-WAN can route traffic via the lowest-latency path. Actual latency depends on path and location. optus.com.au+1</t>
-  </si>
-  <si>
-    <t>Dedicated vs. contended access</t>
-  </si>
-  <si>
-    <t>Typically dedicated / enterprise Ethernet for Telstra Enterprise services (guaranteed bandwidth, symmetrical). Some nbn™ business-grade tiers can be contended — but Enterprise Ethernet / Telstra EA is dedicated. Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Optus direct fibre / Enterprise Ethernet options are dedicated / symmetrical for business plans. SD-WAN sits on top of those links (can use multiple links including contended links for path diversity). optus.com.au+1</t>
-  </si>
-  <si>
-    <t>Service scalability</t>
-  </si>
-  <si>
-    <t>Highly scalable — Telstra offers from 100 Mbps up to multi-Gbps (and point-to-point / multipoint Ethernet) with national reach; capacity can be upgraded via account manager/ordering. Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Designed to scale (50 Mbps → 1 Gbps → multi-Gbps). Optus supports flexible bandwidth tiers and SD-WAN makes adding or rebalancing sites simpler. optus.com.au+1</t>
-  </si>
-  <si>
-    <t>SLA tiers available (Standard Restoration / SLA Premium). SLAs define response and restoration targets, credits for downtime. Telstra publishes SLA documents for enterprise Ethernet/EA. Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Optus offers enterprise SLAs for its direct fibre/Enterprise products and managed SD-WAN; details provided in enterprise contracts/factsheets (portal/enterprise sales). optus.com.au+1</t>
-  </si>
-  <si>
-    <t>Guaranteed uptime %</t>
-  </si>
-  <si>
-    <t>SLA guarantees vary by product and tier; enterprise-grade Ethernet SLAs typically target very high availability (example: 99.9%+ depending on plan and redundancy options). See Telstra SLA documents for exact % per tier. Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Optus enterprise SLAs target high availability for direct fibre; specific uptime percentages (e.g., 99.9% or contractual figure) are stated in the service schedule for the chosen product. optus.com.au+1</t>
-  </si>
-  <si>
-    <t>Business support</t>
-  </si>
-  <si>
-    <t>24/7 enterprise support options, dedicated account teams and escalations for enterprise customers; premium support available as part of enterprise agreements. Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Optus provides enterprise support, managed service teams for SD-WAN, and an Enterprise One portal for monitoring and tickets. 24/7 support available on enterprise contracts. optus.com.au+1</t>
-  </si>
-  <si>
-    <t>MTTR is specified in SLA tiers (Standard vs Premium restoration). Telstra’s SLA PDF outlines restoration/response timeframes by priority — MTTR depends on chosen SLA. Telstra.com</t>
-  </si>
-  <si>
-    <t>Optus states SLA response/restoration targets in enterprise service agreements; managed SD-WAN can reduce effective recovery time through automated path failover, but contractual MTTR varies by tier. cdn.optusdigital.com+1</t>
-  </si>
-  <si>
-    <t>Network redundancy &amp; failover</t>
-  </si>
-  <si>
-    <t>Telstra supports redundant architectures (dual homing, diverse paths, 4G/5G backup options) and can provide multi-link resilience / national Ethernet diversity for enterprise customers. Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Optus SD-WAN provides dynamic path selection and supports multi-link (fibre + backup 4G/5G or secondary links) for resiliency; SD-WAN automatically fails over to best path. optus.com.au+1</t>
-  </si>
-  <si>
-    <t>Trial &amp; demo</t>
-  </si>
-  <si>
-    <t>Enterprise trials / proofs of concept are offered on a case-by-case basis through Telstra Business Technology Centres and enterprise sales teams (engage Telstra rep). Promotional trial offerings sometimes available. Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Optus offers customer demos and POCs for SD-WAN and enterprise services via their sales/solutions teams and partner channel (factsheets mention agility and POC capability). cdn.optusdigital.com+1</t>
-  </si>
-  <si>
-    <t>Promotions &amp; discounts</t>
-  </si>
-  <si>
-    <t>Telstra runs promotional bundles and volume discounts for multi-site or bulk purchases; business-grade offers (e.g., $0 install for certain terms) and minimum contract lengths can apply — check product offer pages. Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Optus often provides tailored commercial discounts for enterprise customers (volume pricing, multi-year contracts, bundling with SD-WAN). Promotions depend on sales negotiation. optus.com.au+1</t>
-  </si>
-  <si>
-    <t>Provider recognition in market</t>
-  </si>
-  <si>
-    <t>Telstra is widely recognised for best nationwide coverage and strong enterprise footprint in Australia. Market leader for geographic reach. Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Optus is recognised for competitive pricing, strong metro fibre footprint, and a growing enterprise SD-WAN/SASE portfolio. Strong option in urban/metro areas. optus.com.au+1</t>
-  </si>
-  <si>
-    <t>Contract term &amp; exit fees</t>
-  </si>
-  <si>
-    <t>Enterprise contracts commonly include fixed terms (24–36 months typical for promotion offers); exit/cancellation fees and early termination charges are defined in the contract and Telstra’s customer terms/SLA documents. Telstra.com+1</t>
-  </si>
-  <si>
-    <t>Optus enterprise agreements typically have fixed terms (often 24–36 months) with contract-specific termination charges; details provided in the service order and contract. optus.com.au+1</t>
-  </si>
-  <si>
     <t>Business Storage</t>
   </si>
   <si>
@@ -568,9 +436,6 @@
   </si>
   <si>
     <t>Max users</t>
-  </si>
-  <si>
-    <t>user / month</t>
   </si>
   <si>
     <t>Microsoft Entra ID ( Azure Active Directory)
@@ -658,6 +523,24 @@
   </si>
   <si>
     <t>14-day trial</t>
+  </si>
+  <si>
+    <t>5% with one-year commitment</t>
+  </si>
+  <si>
+    <t>Tesltra</t>
+  </si>
+  <si>
+    <t>Optus</t>
+  </si>
+  <si>
+    <t>Contract Terms</t>
+  </si>
+  <si>
+    <t>Aditional service extremly expensive</t>
+  </si>
+  <si>
+    <t>user / month / year</t>
   </si>
 </sst>
 </file>
@@ -775,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,6 +723,9 @@
     </xf>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1178,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,13 +1096,13 @@
         <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
@@ -1224,10 +1110,10 @@
         <v>92</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>167</v>
+        <v>123</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D2" s="3">
         <v>300</v>
@@ -1237,11 +1123,11 @@
       <c r="A3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>168</v>
+      <c r="B3" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3">
         <v>300</v>
@@ -1252,7 +1138,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1300,7 +1186,7 @@
         <v>97</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -1308,7 +1194,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>94</v>
@@ -1338,7 +1224,7 @@
         <v>104</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="M6" s="6" t="s">
         <v>105</v>
@@ -1347,16 +1233,16 @@
         <v>106</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>98</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1364,55 +1250,55 @@
         <v>93</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>176</v>
+        <v>131</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>104</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>181</v>
+        <v>135</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1469,42 +1355,42 @@
       <c r="A11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>187</v>
+      <c r="B11" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>109</v>
       </c>
       <c r="E11" s="6">
         <v>100</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>111</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
@@ -1512,38 +1398,44 @@
         <v>93</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>188</v>
+      <c r="E12" s="20" t="s">
+        <v>143</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="17" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1665,7 +1557,7 @@
     </row>
     <row r="38" spans="5:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1676,79 +1568,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="3" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" customWidth="1"/>
+    <col min="2" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+        <v>151</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -1760,12 +1665,17 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
-    </row>
-    <row r="3" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -1777,223 +1687,113 @@
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
-    </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="B15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="B19" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="B20" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="374.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D27" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="D28" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D29" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="10" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="4"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/nbn/nbn-enterprise-ethernet?utm_source=chatgpt.com" xr:uid="{181A7FB0-E797-48C0-AC12-FD05A4266842}"/>
-    <hyperlink ref="D13" r:id="rId2" display="https://www.optus.com.au/business/broadband-nbn/office-broadband/evolve-internet?utm_source=chatgpt.com" xr:uid="{AD205870-A8ED-4891-BBB2-895355BF06C3}"/>
-    <hyperlink ref="C14" r:id="rId3" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/private-networks/national-ethernet?utm_source=chatgpt.com" xr:uid="{2DB84F75-5E71-40F1-A12C-F819465BB63C}"/>
-    <hyperlink ref="D14" r:id="rId4" display="https://www.optus.com.au/enterprise/networking-security/network-solutions/wan/managed-sdwan/hpe-aruba-networking?utm_source=chatgpt.com" xr:uid="{E6816FA3-BF1B-4CBC-B9F4-89A4905D35B0}"/>
-    <hyperlink ref="C15" r:id="rId5" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/private-networks/national-ethernet?utm_source=chatgpt.com" xr:uid="{47EF2FF2-F43A-4DCC-B72D-F9130F6C4D99}"/>
-    <hyperlink ref="D15" r:id="rId6" display="https://www.optus.com.au/enterprise/networking-security/network-solutions/wan/managed-sdwan/hpe-aruba-networking?utm_source=chatgpt.com" xr:uid="{A7F4CFF0-7371-419C-9D28-47307720F54F}"/>
-    <hyperlink ref="C16" r:id="rId7" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/nbn/nbn-enterprise-ethernet?utm_source=chatgpt.com" xr:uid="{E88ECF21-03D1-4FFB-B872-DCC470222A9B}"/>
-    <hyperlink ref="D16" r:id="rId8" display="https://www.optus.com.au/business/broadband-nbn/office-broadband/evolve-internet?utm_source=chatgpt.com" xr:uid="{4FD031C2-A8D4-4647-8AE5-153BD5545941}"/>
-    <hyperlink ref="C17" r:id="rId9" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/private-networks/national-ethernet?utm_source=chatgpt.com" xr:uid="{4D59769D-34F3-438A-B484-B826F2F4ED60}"/>
-    <hyperlink ref="D17" r:id="rId10" display="https://www.optus.com.au/business/broadband-nbn/office-broadband/evolve-internet?utm_source=chatgpt.com" xr:uid="{6FB3CCFB-07D0-47FE-B3A4-A9FC774501F3}"/>
-    <hyperlink ref="C18" r:id="rId11" display="https://www.telstra.com.au/content/dam/tcom/our-customer-terms/business-government/pdf/sla-premium-after-8-july-2022.pdf?utm_source=chatgpt.com" xr:uid="{439FCA4B-DAFB-452B-8ACD-7A8DFF246A75}"/>
-    <hyperlink ref="D18" r:id="rId12" display="https://www.optus.com.au/enterprise/networking-security/network-connectivity?utm_source=chatgpt.com" xr:uid="{48A5D68A-9F06-4D47-B53B-987221F9EBE8}"/>
-    <hyperlink ref="C19" r:id="rId13" display="https://www.telstra.com.au/content/dam/tcom/our-customer-terms/business-government/pdf/sla-premium-after-8-july-2022.pdf?utm_source=chatgpt.com" xr:uid="{8DD3796F-A9B7-49DF-88EE-DAF063E60E5A}"/>
-    <hyperlink ref="D19" r:id="rId14" display="https://www.optus.com.au/enterprise/networking-security/network-connectivity?utm_source=chatgpt.com" xr:uid="{ABA5FD3A-3B7A-4BA1-AEC7-E7F4B1D95DA2}"/>
-    <hyperlink ref="C20" r:id="rId15" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/internet-solutions?utm_source=chatgpt.com" xr:uid="{D0B93633-B54A-497A-A0F7-FA77D6C5E016}"/>
-    <hyperlink ref="D20" r:id="rId16" display="https://www.optus.com.au/enterprise/networking-security/network-connectivity?utm_source=chatgpt.com" xr:uid="{33523B5F-6D1D-4CBB-888A-52F8800F2037}"/>
-    <hyperlink ref="C21" r:id="rId17" display="https://www.telstra.com.au/content/dam/tcom/our-customer-terms/business-government/pdf/sla-premium-after-8-july-2022.pdf?utm_source=chatgpt.com" xr:uid="{E2486B12-C1D7-49A5-9B8B-5B3774E8B6DB}"/>
-    <hyperlink ref="D21" r:id="rId18" display="https://cdn.optusdigital.com/opfiles/Business/PDFs/Optus_Fusion_SD_WAN _Factsheet.pdf?utm_source=chatgpt.com" xr:uid="{24C9CE54-889C-4CE2-948F-D878B9B76F06}"/>
-    <hyperlink ref="C22" r:id="rId19" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/private-networks/national-ethernet?utm_source=chatgpt.com" xr:uid="{EF84FC8C-2C4B-4E24-99F1-0AEF11F9DBE6}"/>
-    <hyperlink ref="D22" r:id="rId20" display="https://www.optus.com.au/enterprise/networking-security/network-solutions/wan/managed-sdwan/hpe-aruba-networking?utm_source=chatgpt.com" xr:uid="{3578BD29-27F7-4697-9DF2-1C8AF8D12BE0}"/>
-    <hyperlink ref="C23" r:id="rId21" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/nbn/nbn-enterprise-ethernet?utm_source=chatgpt.com" xr:uid="{53881372-6D72-4E2B-9135-9700BE85D5C8}"/>
-    <hyperlink ref="D23" r:id="rId22" display="https://cdn.optusdigital.com/opfiles/Business/PDFs/Optus_Fusion_SD_WAN _Factsheet.pdf?utm_source=chatgpt.com" xr:uid="{8FCF40BA-E42A-48F3-A268-842C3182DD0E}"/>
-    <hyperlink ref="C24" r:id="rId23" display="https://www.telstra.com.au/small-business/internet/business-grade-fibre?utm_source=chatgpt.com" xr:uid="{BEC85B84-892E-415B-8E86-92D42FCA511B}"/>
-    <hyperlink ref="D24" r:id="rId24" display="https://www.optus.com.au/business/broadband-nbn/office-broadband/evolve-internet?utm_source=chatgpt.com" xr:uid="{644B46A3-0EAF-4C32-B123-5584851924A9}"/>
-    <hyperlink ref="C25" r:id="rId25" display="https://www.telstra.com.au/business-enterprise/products/networks/adaptive-networks/private-networks/national-ethernet?utm_source=chatgpt.com" xr:uid="{9F392AAC-64EC-4E2A-B8B5-EB4B277DCAE4}"/>
-    <hyperlink ref="D25" r:id="rId26" display="https://www.optus.com.au/enterprise/networking-security/network-connectivity?utm_source=chatgpt.com" xr:uid="{6799D3AF-5F75-4D76-B5C7-0E09A5F02FC5}"/>
-    <hyperlink ref="C26" r:id="rId27" display="https://www.telstra.com.au/content/dam/tcom/our-customer-terms/business-government/pdf/sla-premium-after-8-july-2022.pdf?utm_source=chatgpt.com" xr:uid="{87824470-2213-4CBE-A00E-222C4D3B7FC5}"/>
-    <hyperlink ref="D26" r:id="rId28" display="https://www.optus.com.au/enterprise/networking-security/network-connectivity?utm_source=chatgpt.com" xr:uid="{9E707B76-8A39-47E4-963B-FBEE13CC3731}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2002,7 +1802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C1A7BF-980D-4803-989F-9716893A5E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207FC86C-C7C9-46AC-BD04-91CE322E49D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="165">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -164,9 +164,6 @@
     <t>simultaneous sessions</t>
   </si>
   <si>
-    <t>Guaranteed Mean Time to Recover (MTTR)</t>
-  </si>
-  <si>
     <t>Network Redundancy and Failover Capabilities</t>
   </si>
   <si>
@@ -182,15 +179,9 @@
     <t>Latency</t>
   </si>
   <si>
-    <t>Dedicated vs. Contended Access</t>
-  </si>
-  <si>
     <t>Service Scalability</t>
   </si>
   <si>
-    <t>Service Level Agreement (SLA)</t>
-  </si>
-  <si>
     <t>Guaranteed Uptime Percentage</t>
   </si>
   <si>
@@ -215,28 +206,10 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Bandwidth</t>
-  </si>
-  <si>
-    <t>Symmetry</t>
-  </si>
-  <si>
     <t>Access Technology</t>
   </si>
   <si>
-    <t>Symmetrical Bandwidth</t>
-  </si>
-  <si>
-    <t>Contention Ratio</t>
-  </si>
-  <si>
     <t>Network Segmentation</t>
-  </si>
-  <si>
-    <t>Static IP Addressing</t>
-  </si>
-  <si>
-    <t>Fault Restoration Target</t>
   </si>
   <si>
     <t>Failover / Redundancy</t>
@@ -542,13 +515,91 @@
   <si>
     <t>user / month / year</t>
   </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>VoIP
+FTTN
+FTTB
+VDSL2
+WAN port
+VLAN Tagging
+PPPoE/DHCP
+1000BaseLX</t>
+  </si>
+  <si>
+    <t>Upgrade to enterprise plan
+Downgrade to smaller business plan</t>
+  </si>
+  <si>
+    <t>Monday to Friday 8am - 7pm AEST
+Call
+Book an appoiment
+Multilingual service</t>
+  </si>
+  <si>
+    <t>Response: 1h
+Target: 6h</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>cancel before minimum term ends
+No fees</t>
+  </si>
+  <si>
+    <t>Business Pro Ultrafast nbn</t>
+  </si>
+  <si>
+    <t>$40 off for 6 months
+$240 off over 6 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Bandwidth</t>
+  </si>
+  <si>
+    <t>815 Mbps / 320 Mbps</t>
+  </si>
+  <si>
+    <t>800 Mbps / 320 Mbps</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Business nbn Ultimate</t>
+  </si>
+  <si>
+    <t>nbn
+FTTP
+HFC</t>
+  </si>
+  <si>
+    <t>nbn
+FTTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in-person
+ 24/7 phone, webchat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DHCP/PPPoE
+FTTN / FTTB
+VDSL2
+WAN port
+SRA: SOC / ROC </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -604,7 +655,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -653,12 +704,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,18 +761,6 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -725,6 +777,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="H9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1096,24 +1181,24 @@
         <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D2" s="3">
         <v>300</v>
@@ -1121,13 +1206,13 @@
     </row>
     <row r="3" spans="1:18" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>124</v>
+        <v>84</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3">
         <v>300</v>
@@ -1138,7 +1223,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1183,122 +1268,122 @@
         <v>22</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="20" t="s">
+      <c r="I6" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="L6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>114</v>
-      </c>
       <c r="Q6" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="G7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="N7" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="O7" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="Q7" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q7" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1342,99 +1427,99 @@
         <v>18</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>142</v>
+        <v>83</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>133</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E11" s="6">
         <v>100</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>149</v>
+        <v>102</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>140</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" s="22" t="s">
+      <c r="M12" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>154</v>
-      </c>
       <c r="N12" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1527,7 +1612,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="5:5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1552,12 +1637,12 @@
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="5:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1568,230 +1653,265 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="10.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="18.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="30">
+        <v>175</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="20">
+        <v>159</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0.999</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="10" spans="1:18" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M3" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="22"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="4"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1800,10 +1920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,7 +1934,7 @@
     <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.109375" style="1" customWidth="1"/>
@@ -1829,63 +1949,48 @@
     <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>63</v>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="28"/>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1895,17 +2000,18 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="25"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1915,70 +2021,69 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="25"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
     </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="G5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1996,7 +2101,7 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
-    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2014,60 +2119,58 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
     </row>
-    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:18" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="I10" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2084,7 +2187,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2101,42 +2204,42 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:18" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>18</v>
@@ -2144,11 +2247,9 @@
       <c r="M14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2164,7 +2265,7 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2222,7 +2323,7 @@
       <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2236,7 +2337,7 @@
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="3" t="s">
         <v>30</v>
       </c>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207FC86C-C7C9-46AC-BD04-91CE322E49D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF9EED-07DC-4FF8-8FFB-8064CF500D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="164">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>Pure Copper Conductors</t>
-  </si>
-  <si>
-    <t>Australian Standards Compliance</t>
   </si>
   <si>
     <t>Certified Installation and Testing Requirements</t>
@@ -1149,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="H9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -1181,24 +1178,24 @@
         <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="3">
         <v>300</v>
@@ -1206,13 +1203,13 @@
     </row>
     <row r="3" spans="1:18" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3">
         <v>300</v>
@@ -1223,7 +1220,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1268,122 +1265,122 @@
         <v>22</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>87</v>
-      </c>
       <c r="F6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="I6" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>97</v>
-      </c>
       <c r="O6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="M7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N7" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="O7" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="R7" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1438,88 +1435,88 @@
     </row>
     <row r="11" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="E11" s="6">
         <v>100</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>99</v>
-      </c>
       <c r="E12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="I12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="K12" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>139</v>
-      </c>
       <c r="L12" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1637,12 +1634,12 @@
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="5:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -1682,16 +1679,16 @@
         <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>44</v>
@@ -1726,92 +1723,92 @@
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="30">
         <v>175</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="I2" s="21">
         <v>0.999</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="20">
         <v>159</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I3" s="21">
         <v>0.999</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
@@ -1922,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1935,8 +1932,7 @@
     <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="17.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.88671875" style="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="1" customWidth="1"/>
@@ -2236,17 +2232,15 @@
         <v>81</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="4" t="s">
+      <c r="L14" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF9EED-07DC-4FF8-8FFB-8064CF500D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077F53E-A08E-41E6-A070-0816BF9C8E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="183">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -143,9 +143,6 @@
     <t>ISP related to internet service for the improvement of campus internet service</t>
   </si>
   <si>
-    <t>Cloud verdors related to infrastructure modernization as well as all user management and security</t>
-  </si>
-  <si>
     <t>Vendors and products related to hardware for improving the internet network on campus</t>
   </si>
   <si>
@@ -176,9 +173,6 @@
     <t>Core Technology Type</t>
   </si>
   <si>
-    <t>Latency</t>
-  </si>
-  <si>
     <t>Service Scalability</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>Business Support</t>
   </si>
   <si>
-    <t xml:space="preserve">VENDOR - Router  </t>
-  </si>
-  <si>
     <t>VENDOR - Switch</t>
   </si>
   <si>
@@ -206,85 +197,19 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Access Technology</t>
-  </si>
-  <si>
-    <t>Network Segmentation</t>
-  </si>
-  <si>
-    <t>Failover / Redundancy</t>
-  </si>
-  <si>
     <t>WAN Port Throughput Capacity</t>
   </si>
   <si>
     <t>NAT and Firewall Processing Throughput</t>
   </si>
   <si>
-    <t>QoS and Traffic Shaping Capability</t>
-  </si>
-  <si>
-    <t>Multiple SSID to VLAN Mapping</t>
-  </si>
-  <si>
-    <t>Integrated Captive Portal Functionality</t>
-  </si>
-  <si>
-    <t>Layer 2 or Layer 3 Managed Switch Capability</t>
-  </si>
-  <si>
-    <t>SFP/SFP+ Uplink Ports for Router Connection</t>
-  </si>
-  <si>
-    <t>Quality of Service (QoS) Implementation</t>
-  </si>
-  <si>
-    <t>Remote Management and Monitoring Features</t>
-  </si>
-  <si>
-    <t>Enterprise Grade Security Features</t>
-  </si>
-  <si>
-    <t>Wi-Fi Standard</t>
-  </si>
-  <si>
     <t>VPN Gateway Functionality</t>
   </si>
   <si>
-    <t>DHCP and Concurrent Session Management</t>
-  </si>
-  <si>
-    <t>Standards Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Backplane Switching Capacity </t>
-  </si>
-  <si>
-    <t>VLAN Support  and Port Isolation</t>
-  </si>
-  <si>
-    <t>Wired Enterprise Access Point Architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gigabit Ethernet Port Density</t>
-  </si>
-  <si>
     <t>Cable Category</t>
   </si>
   <si>
     <t>Shielding Type</t>
-  </si>
-  <si>
-    <t>PoE Compatibility and Thermal Stability</t>
-  </si>
-  <si>
-    <t>10 Gigabit Ethernet Support</t>
-  </si>
-  <si>
-    <t>Pure Copper Conductors</t>
-  </si>
-  <si>
-    <t>Certified Installation and Testing Requirements</t>
   </si>
   <si>
     <t>Google</t>
@@ -588,6 +513,144 @@
 VDSL2
 WAN port
 SRA: SOC / ROC </t>
+  </si>
+  <si>
+    <t>Price / Total Cost of Ownership (TCO)</t>
+  </si>
+  <si>
+    <t>Trial or Demo Availability</t>
+  </si>
+  <si>
+    <t>Market Recognition &amp; Reviews</t>
+  </si>
+  <si>
+    <t>Layer 2 / Layer 3 Managed Capability</t>
+  </si>
+  <si>
+    <t>Port Density &amp; Speed</t>
+  </si>
+  <si>
+    <t>Standards Compliance</t>
+  </si>
+  <si>
+    <t>Backplane Switching Capacity &amp; Throughput</t>
+  </si>
+  <si>
+    <t>Uplink Ports (SFP/SFP+ / Fibre)</t>
+  </si>
+  <si>
+    <t>VLAN Support &amp; Port Isolation</t>
+  </si>
+  <si>
+    <t>Quality of Service (QoS)</t>
+  </si>
+  <si>
+    <t>Remote Management &amp; Monitoring</t>
+  </si>
+  <si>
+    <t>Enterprise-Grade Security Features</t>
+  </si>
+  <si>
+    <t>Redundancy &amp; Resilience Features</t>
+  </si>
+  <si>
+    <t>Power over Ethernet (PoE/PoE+) Support (if required)</t>
+  </si>
+  <si>
+    <t>Firmware Updates &amp; Long-Term Support</t>
+  </si>
+  <si>
+    <t>Warranty &amp; After-Sales Support</t>
+  </si>
+  <si>
+    <t>DHCP &amp; Concurrent Session Management</t>
+  </si>
+  <si>
+    <t>Quality of Service (QoS) and Traffic Shaping</t>
+  </si>
+  <si>
+    <t>Wi-Fi Standard &amp; Radio Specs</t>
+  </si>
+  <si>
+    <t>Enterprise Access Point Architecture</t>
+  </si>
+  <si>
+    <t>Multiple SSID and VLAN Mapping</t>
+  </si>
+  <si>
+    <t>Security &amp; Authentication</t>
+  </si>
+  <si>
+    <t>Captive Portal Functionality</t>
+  </si>
+  <si>
+    <t>Firmware Updates &amp; Patch Support</t>
+  </si>
+  <si>
+    <t>Scalability &amp; Roaming Support</t>
+  </si>
+  <si>
+    <t>Warranty &amp; After-Sales Business Support</t>
+  </si>
+  <si>
+    <t>Market Recognition &amp; Client Reviews</t>
+  </si>
+  <si>
+    <t>PoE Compatibility &amp; Thermal Stability</t>
+  </si>
+  <si>
+    <t>10 Gigabit Ethernet &amp; Backward Compatibility</t>
+  </si>
+  <si>
+    <t>Pure Copper Conductors (Solid Core)</t>
+  </si>
+  <si>
+    <t>Access Technology / Media Type</t>
+  </si>
+  <si>
+    <t>Installation &amp; Certification Standards</t>
+  </si>
+  <si>
+    <t>Patch Panels &amp; Terminations</t>
+  </si>
+  <si>
+    <t>Cable Management &amp; Labeling</t>
+  </si>
+  <si>
+    <t>Environmental &amp; Fire Rating</t>
+  </si>
+  <si>
+    <t>Warranty &amp; Vendor Certification</t>
+  </si>
+  <si>
+    <t>Market Recognition &amp; Quality Reviews</t>
+  </si>
+  <si>
+    <t>Trial or Demo Segment</t>
+  </si>
+  <si>
+    <t>Cloud vendors related to infrastructure modernization as well as all user management and security</t>
+  </si>
+  <si>
+    <t>Telstra</t>
+  </si>
+  <si>
+    <t>business nbn Enterprise Ethernet</t>
+  </si>
+  <si>
+    <t>1000 Mbps / 1000 Mbps</t>
+  </si>
+  <si>
+    <t>VoIP
+FTTN
+FTTB
+VDSL2
+VLAN Tagging
+PPPoE/DHCP
+1000BaseLX</t>
+  </si>
+  <si>
+    <t>Contact Business support</t>
   </si>
 </sst>
 </file>
@@ -652,7 +715,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -714,12 +777,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -758,12 +897,6 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -779,35 +912,60 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1147,7 +1305,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,24 +1336,24 @@
         <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D2" s="3">
         <v>300</v>
@@ -1203,13 +1361,13 @@
     </row>
     <row r="3" spans="1:18" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>114</v>
+        <v>58</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D3" s="3">
         <v>300</v>
@@ -1220,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1265,122 +1423,122 @@
         <v>22</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="16" t="s">
         <v>84</v>
       </c>
+      <c r="C6" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="D6" s="6" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>91</v>
+        <v>65</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>118</v>
+        <v>58</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="16" t="s">
-        <v>122</v>
+        <v>96</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>126</v>
+        <v>100</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>129</v>
+        <v>103</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1397,13 +1555,13 @@
         <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>11</v>
@@ -1424,99 +1582,99 @@
         <v>18</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>132</v>
+        <v>57</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="E11" s="6">
         <v>100</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>139</v>
+        <v>76</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>133</v>
+        <v>73</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>135</v>
+        <v>75</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>137</v>
+        <v>111</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>144</v>
+        <v>113</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1529,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1537,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1545,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1609,7 +1767,7 @@
         <v>8</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="5:5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1634,12 +1792,12 @@
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="4" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="5:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1652,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,7 +1827,7 @@
     <col min="11" max="11" width="14.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.5546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="15.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="15" style="1" customWidth="1"/>
     <col min="15" max="15" width="18.88671875" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -1679,140 +1837,169 @@
         <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="30">
+        <v>116</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="23">
         <v>175</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>156</v>
+      <c r="E2" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>147</v>
+        <v>135</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I2" s="21">
+        <v>123</v>
+      </c>
+      <c r="I2" s="37">
         <v>0.999</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="18">
         <v>159</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="20">
-        <v>159</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>157</v>
+      <c r="E3" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>163</v>
+        <v>136</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" s="21">
+        <v>123</v>
+      </c>
+      <c r="I3" s="37">
         <v>0.999</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>158</v>
+        <v>137</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>133</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>151</v>
+        <v>126</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>126</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>152</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="34">
+        <v>420</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
@@ -1823,92 +2010,92 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
-      <c r="C24" s="23"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
-      <c r="C25" s="23"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="23"/>
+      <c r="C26" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1917,76 +2104,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="17.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="17.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="24.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.5546875" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
+        <v>146</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="28"/>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1996,18 +2195,18 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2017,87 +2216,118 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-    </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="S3"/>
+      <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="S4"/>
+      <c r="T4"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="S5"/>
+      <c r="T5"/>
+    </row>
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="S6"/>
+      <c r="T6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -2114,59 +2344,106 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8"/>
+      <c r="T8"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="S9"/>
+      <c r="T9"/>
+    </row>
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>18</v>
+        <v>172</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="S10"/>
+      <c r="T10"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -2182,8 +2459,12 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="S11"/>
+      <c r="T11"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2199,85 +2480,46 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-    </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-    </row>
-    <row r="17" spans="16:16" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="16:16" x14ac:dyDescent="0.3">
-      <c r="P19"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2289,7 +2531,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2299,58 +2541,58 @@
     <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:4" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>35</v>
+      <c r="D4" s="32" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -2360,10 +2602,10 @@
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="27" t="s">
         <v>30</v>
       </c>
     </row>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077F53E-A08E-41E6-A070-0816BF9C8E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B192F-224A-4A29-AD4D-4B8A67BA550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="192">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -515,18 +515,12 @@
 SRA: SOC / ROC </t>
   </si>
   <si>
-    <t>Price / Total Cost of Ownership (TCO)</t>
-  </si>
-  <si>
     <t>Trial or Demo Availability</t>
   </si>
   <si>
     <t>Market Recognition &amp; Reviews</t>
   </si>
   <si>
-    <t>Layer 2 / Layer 3 Managed Capability</t>
-  </si>
-  <si>
     <t>Port Density &amp; Speed</t>
   </si>
   <si>
@@ -549,9 +543,6 @@
   </si>
   <si>
     <t>Enterprise-Grade Security Features</t>
-  </si>
-  <si>
-    <t>Redundancy &amp; Resilience Features</t>
   </si>
   <si>
     <t>Power over Ethernet (PoE/PoE+) Support (if required)</t>
@@ -651,6 +642,45 @@
   </si>
   <si>
     <t>Contact Business support</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36 month minimum spend agreement
+charge up to $5,900 </t>
+  </si>
+  <si>
+    <t>Netgear GS724TP</t>
+  </si>
+  <si>
+    <t>RJ45 10/100/1000 x 23</t>
+  </si>
+  <si>
+    <t>Gigabit SFP (fiber) ports (100M/1G) 1000BASE-X x2</t>
+  </si>
+  <si>
+    <t>VLANs, ACLs, QoS, and LAGs</t>
+  </si>
+  <si>
+    <t>Supported</t>
+  </si>
+  <si>
+    <t>Multi-switch, multi-port</t>
+  </si>
+  <si>
+    <t>Remote/Cloud management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access Control Lists (ACLs)
+MAC lockdown
+DoS attacks prevention	</t>
+  </si>
+  <si>
+    <t>L2 + Smart Switch</t>
+  </si>
+  <si>
+    <t>L2/L3 Managed Capability</t>
+  </si>
+  <si>
+    <t>190w</t>
   </si>
 </sst>
 </file>
@@ -858,7 +888,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -912,6 +942,9 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -953,15 +986,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1810,8 +1834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,7 +1913,7 @@
       <c r="C2" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="24">
         <v>175</v>
       </c>
       <c r="E2" s="16" t="s">
@@ -1904,7 +1928,7 @@
       <c r="H2" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="35">
         <v>0.999</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -1949,7 +1973,7 @@
       <c r="H3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="35">
         <v>0.999</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -1969,37 +1993,51 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="16">
+        <v>420</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="H4" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="34">
-        <v>420</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="I4" s="36">
+      <c r="I4" s="19">
         <v>0.99950000000000006</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>124</v>
       </c>
+      <c r="K4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="14" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
+      <c r="B10" s="20"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
@@ -2010,92 +2048,92 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
-      <c r="C24" s="20"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
-      <c r="C25" s="20"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="20"/>
+      <c r="C26" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2107,18 +2145,18 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.88671875" style="2" customWidth="1"/>
@@ -2137,68 +2175,88 @@
         <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+    </row>
+    <row r="2" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="13">
+        <v>439</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
+      <c r="M2" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -2228,44 +2286,44 @@
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
       <c r="S4"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
       <c r="S5"/>
       <c r="T5"/>
     </row>
@@ -2274,7 +2332,7 @@
         <v>49</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>52</v>
@@ -2283,46 +2341,46 @@
         <v>53</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>54</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="M6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="S6"/>
       <c r="T6"/>
@@ -2372,23 +2430,23 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
       <c r="S9"/>
       <c r="T9"/>
     </row>
@@ -2397,7 +2455,7 @@
         <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>55</v>
@@ -2406,40 +2464,40 @@
         <v>56</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="N10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
       <c r="S10"/>
       <c r="T10"/>
     </row>
@@ -2459,8 +2517,8 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
       <c r="S11"/>
       <c r="T11"/>
     </row>
@@ -2480,46 +2538,46 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2545,7 +2603,7 @@
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -2556,13 +2614,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="26" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2570,14 +2628,14 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="34" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2585,13 +2643,13 @@
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2602,10 +2660,10 @@
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>30</v>
       </c>
     </row>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B192F-224A-4A29-AD4D-4B8A67BA550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AB87AE-EBEC-4424-9315-AEA1704D31C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="196">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>VENDOR - Cables</t>
-  </si>
-  <si>
-    <t>VENDOR - Wi-Fi Modem</t>
   </si>
   <si>
     <t>router compatibility protocols</t>
@@ -527,9 +524,6 @@
     <t>Standards Compliance</t>
   </si>
   <si>
-    <t>Backplane Switching Capacity &amp; Throughput</t>
-  </si>
-  <si>
     <t>Uplink Ports (SFP/SFP+ / Fibre)</t>
   </si>
   <si>
@@ -648,25 +642,7 @@
 charge up to $5,900 </t>
   </si>
   <si>
-    <t>Netgear GS724TP</t>
-  </si>
-  <si>
-    <t>RJ45 10/100/1000 x 23</t>
-  </si>
-  <si>
     <t>Gigabit SFP (fiber) ports (100M/1G) 1000BASE-X x2</t>
-  </si>
-  <si>
-    <t>VLANs, ACLs, QoS, and LAGs</t>
-  </si>
-  <si>
-    <t>Supported</t>
-  </si>
-  <si>
-    <t>Multi-switch, multi-port</t>
-  </si>
-  <si>
-    <t>Remote/Cloud management</t>
   </si>
   <si>
     <t xml:space="preserve">Access Control Lists (ACLs)
@@ -674,13 +650,70 @@
 DoS attacks prevention	</t>
   </si>
   <si>
-    <t>L2 + Smart Switch</t>
-  </si>
-  <si>
     <t>L2/L3 Managed Capability</t>
   </si>
   <si>
-    <t>190w</t>
+    <t>95w - 16 ports</t>
+  </si>
+  <si>
+    <t>CE, FCC, IC</t>
+  </si>
+  <si>
+    <t>1 x GbE RJ45
+24 x (16 PoE+)
+(1G/100M/10M)
+2 x 1G SFP 
+(1G)</t>
+  </si>
+  <si>
+    <t>802.1X Control
+MAC-Based ACLs &amp; Device Isolation
+IP-Based ACLs &amp; Network Isolation
+DHCP Snooping &amp; Guarding
+MAC Address Blocking
+MAC-Based Port Restriction</t>
+  </si>
+  <si>
+    <t>1000, Access Lists IPv4 MAC</t>
+  </si>
+  <si>
+    <t>Ethernet
+AR</t>
+  </si>
+  <si>
+    <t>Egress Rate Limit
+Flow Control
+Storm Control
+Multicast &amp; Broadcast Rate Limiting
+Jumbo Frames
+Port Mirroring
+LLDP-MED</t>
+  </si>
+  <si>
+    <t>Layer 2 PoE Switch</t>
+  </si>
+  <si>
+    <t>unifi Standard 24 PoE (USW-24-POE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 years </t>
+  </si>
+  <si>
+    <t>No found</t>
+  </si>
+  <si>
+    <t>Backplane / throughput</t>
+  </si>
+  <si>
+    <t>Switching Capacity
+52 Gbps
+Total Non-Blocking Throughput
+26 Gbps
+Forwarding Rate
+39 Mpps</t>
+  </si>
+  <si>
+    <t>VENDOR - Access Point</t>
   </si>
 </sst>
 </file>
@@ -888,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -989,6 +1022,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1360,24 +1396,24 @@
         <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" s="3">
         <v>300</v>
@@ -1385,13 +1421,13 @@
     </row>
     <row r="3" spans="1:18" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3" s="3">
         <v>300</v>
@@ -1402,7 +1438,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
@@ -1447,122 +1483,122 @@
         <v>22</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="F6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="6" t="s">
-        <v>71</v>
-      </c>
       <c r="O6" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>98</v>
-      </c>
       <c r="M7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="O7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="R7" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1617,88 +1653,88 @@
     </row>
     <row r="11" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="E11" s="6">
         <v>100</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="E12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="16" t="s">
+      <c r="I12" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="K12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="L12" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1816,12 +1852,12 @@
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="5:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="E38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1861,22 +1897,22 @@
         <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>43</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>44</v>
@@ -1905,135 +1941,135 @@
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D2" s="24">
         <v>175</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="I2" s="35">
         <v>0.999</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="M2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="18">
         <v>159</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" s="35">
         <v>0.999</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="16">
         <v>420</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>177</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>179</v>
       </c>
       <c r="I4" s="19">
         <v>0.99950000000000006</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="M4" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
@@ -2142,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B26" sqref="B26:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2175,74 +2211,76 @@
         <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="P1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B2" s="13">
-        <v>439</v>
+        <v>719</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="F2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>186</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>185</v>
@@ -2255,16 +2293,22 @@
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="P2" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="Q2" s="6"/>
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2275,7 +2319,9 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -2329,58 +2375,58 @@
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>195</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="M6" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N6" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="S6"/>
       <c r="T6"/>
@@ -2455,46 +2501,46 @@
         <v>48</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="E10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="L10" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="M10" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="N10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -2578,6 +2624,71 @@
       <c r="O14" s="23"/>
       <c r="P14" s="23"/>
       <c r="Q14" s="23"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2618,7 +2729,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" s="26" t="s">
         <v>31</v>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AB87AE-EBEC-4424-9315-AEA1704D31C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D871228D-C930-49DA-8A25-815D934EC42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="201">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -714,6 +714,21 @@
   </si>
   <si>
     <t>VENDOR - Access Point</t>
+  </si>
+  <si>
+    <t>Maximum Concurrent Clients / Session Capacity</t>
+  </si>
+  <si>
+    <t>Throughput / Data Rate</t>
+  </si>
+  <si>
+    <t>Multiple SSID &amp; VLAN Mapping</t>
+  </si>
+  <si>
+    <t>QoS &amp; Traffic Management</t>
+  </si>
+  <si>
+    <t>PoE Support</t>
   </si>
 </sst>
 </file>
@@ -921,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -993,6 +1008,7 @@
     <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1964,7 +1980,7 @@
       <c r="H2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="36">
         <v>0.999</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -2009,7 +2025,7 @@
       <c r="H3" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="36">
         <v>0.999</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -2178,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:B38"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2279,7 +2295,7 @@
       <c r="G2" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="37" t="s">
         <v>186</v>
       </c>
       <c r="I2" s="6" t="s">
@@ -2381,53 +2397,47 @@
         <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="R6" s="4" t="s">
         <v>160</v>
       </c>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
     </row>
@@ -2447,9 +2457,9 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
     </row>
@@ -2469,9 +2479,9 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
     </row>
@@ -2491,8 +2501,9 @@
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
     </row>
@@ -2542,8 +2553,9 @@
       <c r="O10" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
     </row>
@@ -2625,68 +2637,138 @@
       <c r="P14" s="23"/>
       <c r="Q14" s="23"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C26" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C27"/>
+      <c r="E27" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C28" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C29"/>
+      <c r="E29" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C30" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C31"/>
+      <c r="E31" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C32" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C33"/>
+      <c r="E33" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C34" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="37" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C36" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="38" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C40" s="25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C42" s="25" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2714,7 +2796,7 @@
       <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -2725,13 +2807,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2739,14 +2821,14 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2754,13 +2836,13 @@
       <c r="A4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2771,10 +2853,10 @@
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="29" t="s">
         <v>30</v>
       </c>
     </row>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D871228D-C930-49DA-8A25-815D934EC42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603B43E-DCA4-4585-8CAA-1F414B8F8326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="211">
   <si>
     <t>Business Base Storage</t>
   </si>
@@ -645,11 +645,6 @@
     <t>Gigabit SFP (fiber) ports (100M/1G) 1000BASE-X x2</t>
   </si>
   <si>
-    <t xml:space="preserve">Access Control Lists (ACLs)
-MAC lockdown
-DoS attacks prevention	</t>
-  </si>
-  <si>
     <t>L2/L3 Managed Capability</t>
   </si>
   <si>
@@ -730,13 +725,51 @@
   <si>
     <t>PoE Support</t>
   </si>
+  <si>
+    <t xml:space="preserve">	
+Cisco Business 350 Series CBS350-24S-4G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3 managed </t>
+  </si>
+  <si>
+    <t> 24 x Gigabit SFP + 2 x Combo Gigabit Ethernet/Gigabit SFP + 2 x Gigabit SFP (Uplink)</t>
+  </si>
+  <si>
+    <t>ISO 14001, ISO 9001, RoHS, REACH, CE, FCC</t>
+  </si>
+  <si>
+    <t>Switching Capacity  
+6 Gbps
+Forwarding Rate
+41.66 Mpps</t>
+  </si>
+  <si>
+    <t>2 x Gigabit Ethernet combo + 2 SFP</t>
+  </si>
+  <si>
+    <t>Cisco Business Dashboard and mobile app; on-device UI, CLI, and SNMP</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">802.1X authentication, ACLs, DoS protection, MAC-based access control,  SNMPv3 </t>
+  </si>
+  <si>
+    <t>End of Support Life: October 31, 2029</t>
+  </si>
+  <si>
+    <t>1 year, Enhanced limited lifetime warranty</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
@@ -936,7 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1041,6 +1074,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2196,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2230,7 +2266,7 @@
         <v>50</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>140</v>
@@ -2239,7 +2275,7 @@
         <v>141</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>142</v>
@@ -2275,47 +2311,47 @@
     </row>
     <row r="2" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="13">
         <v>719</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>179</v>
       </c>
       <c r="H2" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>125</v>
@@ -2324,25 +2360,53 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+    <row r="3" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="38">
+        <v>1765.61</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="6">
+        <v>256</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>206</v>
+      </c>
       <c r="K3" s="6" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="Q3" s="6"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -2391,7 +2455,7 @@
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>50</v>
@@ -2400,22 +2464,22 @@
         <v>152</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>155</v>
       </c>
       <c r="H6" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>145</v>
@@ -2637,7 +2701,7 @@
       <c r="P14" s="23"/>
       <c r="Q14" s="23"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
@@ -2647,68 +2711,89 @@
       <c r="E26" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G26" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C27"/>
       <c r="E27" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G28" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>150</v>
       </c>
       <c r="C29"/>
       <c r="E29" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G30" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C31"/>
       <c r="E31" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>153</v>
       </c>
@@ -2716,8 +2801,11 @@
       <c r="E33" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G33" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>154</v>
       </c>
@@ -2727,47 +2815,60 @@
       <c r="E34" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G34" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>155</v>
       </c>
       <c r="C35"/>
-    </row>
-    <row r="36" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>156</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C37"/>
-    </row>
-    <row r="38" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G37" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>157</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C39"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C40" s="25" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C41"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C42" s="25" t="s">
         <v>157</v>
       </c>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603B43E-DCA4-4585-8CAA-1F414B8F8326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C34D988-3825-4992-84D6-E921DBAAB2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -2232,8 +2232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2292,20 +2292,19 @@
       <c r="K1" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="M1" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q1" s="4" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2343,20 +2342,19 @@
       <c r="K2" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="6" t="s">
+        <v>181</v>
+      </c>
       <c r="M2" s="6" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="P2" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="6"/>
       <c r="S2"/>
       <c r="T2"/>
     </row>
@@ -2394,20 +2392,19 @@
       <c r="K3" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>207</v>
+      </c>
       <c r="M3" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="P3" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="6"/>
       <c r="S3"/>
       <c r="T3"/>
     </row>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C34D988-3825-4992-84D6-E921DBAAB2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9C7C67-ED13-4539-97C1-EB37F7DDAB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="211">
-  <si>
-    <t>Business Base Storage</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="241">
   <si>
     <t>Cloud Backup service</t>
   </si>
@@ -192,15 +189,6 @@
   </si>
   <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t>WAN Port Throughput Capacity</t>
-  </si>
-  <si>
-    <t>NAT and Firewall Processing Throughput</t>
-  </si>
-  <si>
-    <t>VPN Gateway Functionality</t>
   </si>
   <si>
     <t>Cable Category</t>
@@ -548,27 +536,12 @@
     <t>Warranty &amp; After-Sales Support</t>
   </si>
   <si>
-    <t>DHCP &amp; Concurrent Session Management</t>
-  </si>
-  <si>
-    <t>Quality of Service (QoS) and Traffic Shaping</t>
-  </si>
-  <si>
     <t>Wi-Fi Standard &amp; Radio Specs</t>
   </si>
   <si>
-    <t>Enterprise Access Point Architecture</t>
-  </si>
-  <si>
-    <t>Multiple SSID and VLAN Mapping</t>
-  </si>
-  <si>
     <t>Security &amp; Authentication</t>
   </si>
   <si>
-    <t>Captive Portal Functionality</t>
-  </si>
-  <si>
     <t>Firmware Updates &amp; Patch Support</t>
   </si>
   <si>
@@ -581,25 +554,10 @@
     <t>Market Recognition &amp; Client Reviews</t>
   </si>
   <si>
-    <t>PoE Compatibility &amp; Thermal Stability</t>
-  </si>
-  <si>
-    <t>10 Gigabit Ethernet &amp; Backward Compatibility</t>
-  </si>
-  <si>
-    <t>Pure Copper Conductors (Solid Core)</t>
-  </si>
-  <si>
-    <t>Access Technology / Media Type</t>
-  </si>
-  <si>
     <t>Installation &amp; Certification Standards</t>
   </si>
   <si>
     <t>Patch Panels &amp; Terminations</t>
-  </si>
-  <si>
-    <t>Cable Management &amp; Labeling</t>
   </si>
   <si>
     <t>Environmental &amp; Fire Rating</t>
@@ -654,13 +612,6 @@
     <t>CE, FCC, IC</t>
   </si>
   <si>
-    <t>1 x GbE RJ45
-24 x (16 PoE+)
-(1G/100M/10M)
-2 x 1G SFP 
-(1G)</t>
-  </si>
-  <si>
     <t>802.1X Control
 MAC-Based ACLs &amp; Device Isolation
 IP-Based ACLs &amp; Network Isolation
@@ -761,6 +712,163 @@
   </si>
   <si>
     <t>1 year, Enhanced limited lifetime warranty</t>
+  </si>
+  <si>
+    <t>$719 (24)
+ $799 (48)</t>
+  </si>
+  <si>
+    <t>1 x GbE RJ45
+24/48  x (16 PoE+) 
+(1G/100M/10M)
+2 x 1G SFP 
+(1G)</t>
+  </si>
+  <si>
+    <t>TP-Link Omada</t>
+  </si>
+  <si>
+    <t>NETGEAR</t>
+  </si>
+  <si>
+    <t>Wi-Fi 6 (802.11ax), Dual-Band: 2.4 GHz (574 Mbps), 5 GHz (2402 Mbps)</t>
+  </si>
+  <si>
+    <t>Wi-Fi 6E (802.11ax), Tri-Band: 2.4 GHz (600 Mbps), 5 GHz (4800 Mbps), 6 GHz (2400 Mbps)</t>
+  </si>
+  <si>
+    <t>Total 2976 Mbps (574 Mbps on 2.4 GHz + 2402 Mbps on 5 GHz)</t>
+  </si>
+  <si>
+    <t>Total 7800 Mbps (600 Mbps on 2.4 GHz + 4800 Mbps on 5 GHz + 2400 Mbps on 6 GHz)</t>
+  </si>
+  <si>
+    <t>Supports up to 16 SSIDs, VLAN tagging, and seamless roaming</t>
+  </si>
+  <si>
+    <t>Supports up to 8 SSIDs, VLAN tagging, and seamless roaming</t>
+  </si>
+  <si>
+    <t>WPA3, WPA2, WPA, 802.1X RADIUS, PPSK, MAC filtering, HTTPS management</t>
+  </si>
+  <si>
+    <t>WPA3, WPA2, WPA, 802.1X RADIUS, MAC filtering, HTTPS management</t>
+  </si>
+  <si>
+    <t>OFDMA, MU-MIMO, Airtime Fairness, Band Steering, Load Balancing</t>
+  </si>
+  <si>
+    <t>802.3bt PoE++</t>
+  </si>
+  <si>
+    <t>Omada SDN Cloud Controller, Omada App, Web UI</t>
+  </si>
+  <si>
+    <t>NETGEAR Insight Cloud Management, Web UI</t>
+  </si>
+  <si>
+    <t>Automatic updates</t>
+  </si>
+  <si>
+    <t>scalable deployment</t>
+  </si>
+  <si>
+    <t>$199 ($99)</t>
+  </si>
+  <si>
+    <t>5 years</t>
+  </si>
+  <si>
+    <t>5e</t>
+  </si>
+  <si>
+    <t>Gigabit Ethernet &amp; Backward Compatibility</t>
+  </si>
+  <si>
+    <t>4cabling</t>
+  </si>
+  <si>
+    <t>Cuantity</t>
+  </si>
+  <si>
+    <t>UTP</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>ETL, UL Verification
+Flame test: comply with IEC 60332-1-2
+ISO/IEC11801:2011(Ed. 2.2)
+ANSI/TIA/EIA-568-C.2
+EN 50173-1:2011
+EN 50173-2:2007 including amendment A1:2010
+IEC61935-2:2010(Ed.3.0) (transmission requirements)</t>
+  </si>
+  <si>
+    <t>3 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Plated Contacts
+</t>
+  </si>
+  <si>
+    <t>24AWG x 4Pair, 100% Bare Copper</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>PVC
+ RJ45-RJ45</t>
+  </si>
+  <si>
+    <t>No data</t>
+  </si>
+  <si>
+    <t>1000Mbps</t>
+  </si>
+  <si>
+    <t>No data PoE</t>
+  </si>
+  <si>
+    <t>Flame Retardant PVC</t>
+  </si>
+  <si>
+    <t>PoE Compatibility</t>
+  </si>
+  <si>
+    <t>300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cat 6A S/FTP</t>
+  </si>
+  <si>
+    <t>100w</t>
+  </si>
+  <si>
+    <t>10Gbps</t>
+  </si>
+  <si>
+    <t>Low Smoke Zero Halogen (LSZH) reduces the amount of corrosive and toxic gases emitted during comb</t>
+  </si>
+  <si>
+    <t>26AWG x 4Pair, 100% Bare Copper</t>
+  </si>
+  <si>
+    <t>ETL Verified
+UL Verified
+Performs at 500MHz
+ISO/IEC11801:2011(Ed. 2.2)
+ANSI/TIA/EIA-568-C.2 Category 6A compliant
+EN 50173-1:2011
+EN 50173-2:2007 including amendment A1:2010
+IEC61935-2:2010(Ed.3.0) (transmission requirements)</t>
+  </si>
+  <si>
+    <t>Strong and robust male-to-male RJ45 connectors
+LSZH
+RJ45-RJ45</t>
   </si>
 </sst>
 </file>
@@ -770,7 +878,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -812,7 +920,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,6 +930,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,7 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1011,16 +1125,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1032,16 +1140,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1052,32 +1153,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1414,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1445,27 +1552,27 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>56</v>
+      <c r="A2" s="34" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D2" s="3">
         <v>300</v>
@@ -1473,13 +1580,13 @@
     </row>
     <row r="3" spans="1:18" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D3" s="3">
         <v>300</v>
@@ -1487,170 +1594,170 @@
     </row>
     <row r="5" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="Q5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="I6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="R6" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="I7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="J7" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="K7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="N7" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="P7" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="R7" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
@@ -1661,256 +1768,187 @@
     </row>
     <row r="10" spans="1:18" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="11" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>106</v>
+      <c r="A11" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E11" s="6">
         <v>100</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H11" s="13">
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="I12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="5:6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E22" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E28" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E29" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E30" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="E31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="E32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="5:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E34" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="5:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="E38" s="4" t="s">
-        <v>79</v>
-      </c>
+    </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="4:7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="4:7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1922,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1946,186 +1984,186 @@
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="K1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="20">
+        <v>175</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" s="29">
+        <v>0.999</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="24">
-        <v>175</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="L2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="36">
-        <v>0.999</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="D3" s="16">
+        <v>159</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="18">
-        <v>159</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>137</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I3" s="36">
+        <v>118</v>
+      </c>
+      <c r="I3" s="29">
         <v>0.999</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>173</v>
+      <c r="A4" s="34" t="s">
+        <v>159</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>420</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="I4" s="19">
+        <v>163</v>
+      </c>
+      <c r="I4" s="17">
         <v>0.99950000000000006</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="14" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
@@ -2136,92 +2174,92 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
-      <c r="C24" s="21"/>
+      <c r="C24" s="19"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
-      <c r="C25" s="21"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="21"/>
+      <c r="C26" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2230,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
-  <dimension ref="A1:T42"/>
+  <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:P3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2242,11 +2280,11 @@
     <col min="2" max="2" width="19.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="17.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="2" customWidth="1"/>
     <col min="11" max="11" width="14.88671875" style="2" customWidth="1"/>
     <col min="12" max="12" width="14" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.88671875" style="2" customWidth="1"/>
@@ -2260,99 +2298,99 @@
   <sheetData>
     <row r="1" spans="1:20" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>149</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="13">
-        <v>719</v>
+      <c r="A2" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>185</v>
+        <v>165</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>170</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P2" s="6"/>
       <c r="S2"/>
@@ -2360,141 +2398,109 @@
     </row>
     <row r="3" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="38">
+        <v>185</v>
+      </c>
+      <c r="B3" s="31">
         <v>1765.61</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="H3" s="6">
         <v>256</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="P3" s="6"/>
       <c r="S3"/>
       <c r="T3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
+      <c r="A4" s="11"/>
       <c r="S4"/>
       <c r="T4"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
+      <c r="A5" s="11"/>
       <c r="S5"/>
       <c r="T5"/>
     </row>
     <row r="6" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="P6"/>
       <c r="Q6"/>
@@ -2502,21 +2508,49 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+    <row r="7" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="13">
+        <v>199</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="6">
+        <v>256</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7"/>
       <c r="Q7"/>
@@ -2524,21 +2558,49 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="6">
+        <v>512</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8"/>
       <c r="Q8"/>
@@ -2547,328 +2609,469 @@
       <c r="T8"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
+      <c r="A9" s="11"/>
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="P10"/>
+        <v>156</v>
+      </c>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+    <row r="11" spans="1:20" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="31">
+        <v>745.8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="O11" s="6"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+    <row r="12" spans="1:20" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B12" s="31">
+        <v>394.8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="O12" s="6"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-    </row>
-    <row r="26" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="4" t="s">
-        <v>51</v>
-      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
       <c r="C27"/>
-      <c r="E27" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>150</v>
-      </c>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29"/>
+      <c r="B29"/>
       <c r="C29"/>
-      <c r="E29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31"/>
+      <c r="B31"/>
       <c r="C31"/>
-      <c r="E31" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33"/>
+      <c r="B33"/>
       <c r="C33"/>
-      <c r="E33" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
       <c r="C35"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37"/>
+      <c r="B37"/>
       <c r="C37"/>
-      <c r="G37" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39"/>
+      <c r="B39"/>
       <c r="C39"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C40" s="25" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41"/>
+      <c r="B41"/>
       <c r="C41"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="C42" s="25" t="s">
-        <v>157</v>
-      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48"/>
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2892,84 +3095,84 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>30</v>
+      <c r="D3" s="28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9C7C67-ED13-4539-97C1-EB37F7DDAB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A587D3-E2F3-4ADA-B20E-CFECC6784E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A587D3-E2F3-4ADA-B20E-CFECC6784E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A1EFE2-6753-4C7D-9979-B1635FCE0CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="256">
   <si>
     <t>Cloud Backup service</t>
   </si>
@@ -377,9 +377,6 @@
 $3,249 (base)
 +
 $937.5</t>
-  </si>
-  <si>
-    <t>$5,940 yr</t>
   </si>
   <si>
     <t>not specified</t>
@@ -639,9 +636,6 @@
     <t>Layer 2 PoE Switch</t>
   </si>
   <si>
-    <t>unifi Standard 24 PoE (USW-24-POE)</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 years </t>
   </si>
   <si>
@@ -714,17 +708,6 @@
     <t>1 year, Enhanced limited lifetime warranty</t>
   </si>
   <si>
-    <t>$719 (24)
- $799 (48)</t>
-  </si>
-  <si>
-    <t>1 x GbE RJ45
-24/48  x (16 PoE+) 
-(1G/100M/10M)
-2 x 1G SFP 
-(1G)</t>
-  </si>
-  <si>
     <t>TP-Link Omada</t>
   </si>
   <si>
@@ -771,9 +754,6 @@
   </si>
   <si>
     <t>scalable deployment</t>
-  </si>
-  <si>
-    <t>$199 ($99)</t>
   </si>
   <si>
     <t>5 years</t>
@@ -870,17 +850,91 @@
 LSZH
 RJ45-RJ45</t>
   </si>
+  <si>
+    <t>UniFi Switch Pro 24 PoE (USW-Pro-24-POE)</t>
+  </si>
+  <si>
+    <t>TOTAL COST</t>
+  </si>
+  <si>
+    <t>AP x 4</t>
+  </si>
+  <si>
+    <t>cable CAT 6a pack x300m</t>
+  </si>
+  <si>
+    <t>switch L2 x2 - 24</t>
+  </si>
+  <si>
+    <t>switch L2 x1 - 48</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>UniFi</t>
+  </si>
+  <si>
+    <t>UniFi Switch Pro 48 PoE (USW-Pro-48-POE)</t>
+  </si>
+  <si>
+    <t>1 x GbE RJ45
+24  x (16 PoE+) 
+(1G/100M/10M)
+2 x 1G SFP 
+(1G)</t>
+  </si>
+  <si>
+    <t>1 x GbE RJ45
+48  x (40 Poe, 8 PoE+) 
+(1G/100M/10M)
+2 x 1G SFP 
+(1G)</t>
+  </si>
+  <si>
+    <t>Switching Capacity
+176 Gbps
+Total Non-Blocking Throughput
+88 Gbps
+Forwarding Rate
+131 Mpps</t>
+  </si>
+  <si>
+    <t>600w -40 PoE+; 8 PoE++</t>
+  </si>
+  <si>
+    <t>4cabling CAT 5e</t>
+  </si>
+  <si>
+    <t>tp link omada ax3000</t>
+  </si>
+  <si>
+    <t>netgear wax630e</t>
+  </si>
+  <si>
+    <t>Counting</t>
+  </si>
+  <si>
+    <t>4cabling  Cat 6A S/FTP</t>
+  </si>
+  <si>
+    <t>6 MOTHS</t>
+  </si>
+  <si>
+    <t>6 MONTHS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,15 +966,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="24"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,6 +1011,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,11 +1160,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1134,9 +1216,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1174,20 +1253,85 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1523,13 +1667,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
@@ -1565,14 +1709,14 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="3">
         <v>300</v>
@@ -1586,7 +1730,7 @@
         <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="3">
         <v>300</v>
@@ -1649,7 +1793,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1811,11 +1955,11 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>102</v>
+      <c r="B11" s="15">
+        <v>5940</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>67</v>
@@ -1836,13 +1980,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>71</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>73</v>
@@ -1866,34 +2010,60 @@
         <v>68</v>
       </c>
       <c r="E12" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>70</v>
       </c>
       <c r="H12" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="K12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="L12" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="str">
+        <f>B2</f>
+        <v>Google Workspace for Business (Plus)</v>
+      </c>
+      <c r="C15" s="47">
+        <f>B11</f>
+        <v>5940</v>
+      </c>
+      <c r="D15" s="47">
+        <f>C15/2</f>
+        <v>2970</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="49">
+        <f>D15</f>
+        <v>2970</v>
       </c>
     </row>
     <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1960,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1990,13 +2160,13 @@
         <v>81</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>42</v>
@@ -2031,139 +2201,163 @@
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="19">
+        <v>175</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="28">
+        <v>0.999</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="20">
-        <v>175</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I2" s="29">
-        <v>0.999</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="16">
         <v>159</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="28">
+        <v>0.999</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="29">
-        <v>0.999</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>128</v>
-      </c>
       <c r="L3" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
         <v>420</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>163</v>
       </c>
       <c r="I4" s="17">
         <v>0.99950000000000006</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="M4" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="str">
+        <f>B4</f>
+        <v>business nbn Enterprise Ethernet</v>
+      </c>
+      <c r="C9" s="47">
+        <f>D4</f>
+        <v>420</v>
+      </c>
+      <c r="D9" s="47">
+        <f>C9*6</f>
+        <v>2520</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49">
+        <f>D9</f>
+        <v>2520</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
@@ -2174,92 +2368,92 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
-      <c r="C24" s="19"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
-      <c r="C25" s="19"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="19"/>
+      <c r="C26" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2268,810 +2462,945 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
-  <dimension ref="A1:T52"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.44140625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="14" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.5546875" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="18.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="24.33203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="14.5546875" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="13">
+        <v>799</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q2" s="6"/>
+      <c r="T2"/>
+      <c r="U2"/>
+    </row>
+    <row r="3" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="13">
+        <v>719</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="N3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="T3"/>
+      <c r="U3"/>
+    </row>
+    <row r="4" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="30">
+        <v>1765.61</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="6">
+        <v>256</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="T4"/>
+      <c r="U4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="40"/>
+      <c r="T5"/>
+      <c r="U5"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="40"/>
+      <c r="T6"/>
+      <c r="U6"/>
+    </row>
+    <row r="7" spans="1:21" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="B7" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="31">
-        <v>1765.61</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" s="6">
-        <v>256</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="S3"/>
-      <c r="T3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="S4"/>
-      <c r="T4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="S5"/>
-      <c r="T5"/>
-    </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-    </row>
-    <row r="7" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="13">
-        <v>199</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="6">
-        <v>256</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
-    </row>
-    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="U7"/>
+    </row>
+    <row r="8" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="13">
         <v>199</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="6">
-        <v>512</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>203</v>
+      <c r="D8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="6">
+        <v>256</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="K8" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L8" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>215</v>
-      </c>
       <c r="N8" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="6"/>
-      <c r="P8"/>
+        <v>210</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="6"/>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="P9"/>
+      <c r="U8"/>
+    </row>
+    <row r="9" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" s="13">
+        <v>99</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="6">
+        <v>512</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P9" s="6"/>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
       <c r="T9"/>
-    </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>156</v>
-      </c>
+      <c r="U9"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="40"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
-    </row>
-    <row r="11" spans="1:20" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="B11" s="31">
-        <v>745.8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="6"/>
+      <c r="U10"/>
+    </row>
+    <row r="11" spans="1:21" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
-    </row>
-    <row r="12" spans="1:20" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="U11"/>
+    </row>
+    <row r="12" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="30">
+        <v>745.8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="N12" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B12" s="31">
+      <c r="O12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P12" s="6"/>
+      <c r="T12"/>
+      <c r="U12"/>
+    </row>
+    <row r="13" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="30">
         <v>394.8</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="J12" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B16"/>
+      <c r="K13" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C16"/>
       <c r="D16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B17"/>
+      <c r="E16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17"/>
       <c r="D17"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B18"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C18"/>
       <c r="D18"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C19"/>
       <c r="D19"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="F23"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A20" s="36"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:9" ht="54" x14ac:dyDescent="0.35">
+      <c r="A21" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" s="45" t="str">
+        <f>B3</f>
+        <v>UniFi Switch Pro 24 PoE (USW-Pro-24-POE)</v>
+      </c>
+      <c r="C21" s="46">
+        <f>C3</f>
+        <v>719</v>
+      </c>
+      <c r="D21" s="51">
+        <v>2</v>
+      </c>
+      <c r="E21" s="52">
+        <f>C21*D21</f>
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.35">
+      <c r="A22" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="B22" s="45" t="str">
+        <f>B2</f>
+        <v>UniFi Switch Pro 48 PoE (USW-Pro-48-POE)</v>
+      </c>
+      <c r="C22" s="46">
+        <f>C2</f>
+        <v>799</v>
+      </c>
+      <c r="D22" s="51">
+        <v>1</v>
+      </c>
+      <c r="E22" s="52">
+        <f t="shared" ref="E22:E24" si="0">C22*D22</f>
+        <v>799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="45" t="str">
+        <f>B9</f>
+        <v>netgear wax630e</v>
+      </c>
+      <c r="C23" s="46">
+        <f>C9</f>
+        <v>99</v>
+      </c>
+      <c r="D23" s="51">
+        <v>4</v>
+      </c>
+      <c r="E23" s="52">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
       <c r="G23"/>
       <c r="H23"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A24" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="45" t="str">
+        <f>B12</f>
+        <v>4cabling  Cat 6A S/FTP</v>
+      </c>
+      <c r="C24" s="46">
+        <f>C12</f>
+        <v>745.8</v>
+      </c>
+      <c r="D24" s="51">
+        <v>1</v>
+      </c>
+      <c r="E24" s="52">
+        <f t="shared" si="0"/>
+        <v>745.8</v>
+      </c>
       <c r="G24"/>
       <c r="H24"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A25" s="36"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
       <c r="G25"/>
       <c r="H25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A26" s="54"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A27" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="57"/>
+      <c r="C27" s="58">
+        <f>SUM(E21:E24)</f>
+        <v>3378.8</v>
+      </c>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A28" s="54"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="35"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="35"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="35"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32"/>
-      <c r="B32"/>
+      <c r="B32" s="43"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33"/>
-      <c r="B33"/>
+      <c r="B33" s="43"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34"/>
-      <c r="B34"/>
+      <c r="B34" s="43"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35"/>
-      <c r="B35"/>
+      <c r="B35" s="43"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36"/>
-      <c r="B36"/>
+      <c r="B36" s="43"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
-      <c r="H36"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37"/>
-      <c r="B37"/>
+      <c r="B37" s="43"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38"/>
-      <c r="B38"/>
+      <c r="B38" s="43"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
-      <c r="H38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39"/>
-      <c r="B39"/>
+      <c r="B39" s="43"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G39"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40"/>
-      <c r="B40"/>
+      <c r="B40" s="43"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G40"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41"/>
-      <c r="B41"/>
+      <c r="B41" s="43"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G41"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42"/>
-      <c r="B42"/>
+      <c r="B42" s="43"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G42"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43"/>
-      <c r="B43"/>
+      <c r="B43" s="43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G43"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44"/>
-      <c r="B44"/>
+      <c r="B44" s="43"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G44"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45"/>
-      <c r="B45"/>
+      <c r="B45" s="43"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G45"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46"/>
-      <c r="B46"/>
+      <c r="B46" s="43"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47"/>
-      <c r="B47"/>
+      <c r="B47" s="43"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G47"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48"/>
-      <c r="B48"/>
+      <c r="B48" s="43"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49"/>
-      <c r="B49"/>
+      <c r="B49" s="43"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
+      <c r="G49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3082,7 +3411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F905D68-4C2D-4182-A4B3-677631D2FDBD}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3097,7 +3426,7 @@
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -3108,13 +3437,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3122,14 +3451,14 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3137,13 +3466,13 @@
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3154,10 +3483,10 @@
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>29</v>
       </c>
     </row>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A1EFE2-6753-4C7D-9979-B1635FCE0CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230001F5-8E44-4634-B7E5-1CBE378A1832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="265">
   <si>
     <t>Cloud Backup service</t>
   </si>
@@ -412,9 +412,6 @@
   </si>
   <si>
     <t>Contract Terms</t>
-  </si>
-  <si>
-    <t>Aditional service extremly expensive</t>
   </si>
   <si>
     <t>user / month / year</t>
@@ -597,9 +594,6 @@
 charge up to $5,900 </t>
   </si>
   <si>
-    <t>Gigabit SFP (fiber) ports (100M/1G) 1000BASE-X x2</t>
-  </si>
-  <si>
     <t>L2/L3 Managed Capability</t>
   </si>
   <si>
@@ -922,6 +916,65 @@
   </si>
   <si>
     <t>6 MONTHS</t>
+  </si>
+  <si>
+    <t>Gigabit SFP (fiber) ports (100M/1G) 1000BASE-X x2
+1xUplink 10 Gbp</t>
+  </si>
+  <si>
+    <t>An office suite that's more than sufficient for cloud-focused businesses.
+Great price-to-storage ratio.
+Integration with third-party apps is excellent.
+More than sufficient for small and medium-sized businesses.</t>
+  </si>
+  <si>
+    <t>Aditional service extremly expensive
+Very good experience in medium-sized/large companies.
+Integration services with Office, windows and Azure are excellent.</t>
+  </si>
+  <si>
+    <t>90% of large businesses use Telstra Enterprise
+Reliable service, fast support
+The cost of service is considerably higher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Reliable service, fast support
+The cost of service is considerably higher</t>
+  </si>
+  <si>
+    <t>Low prices, good service
+The service is unreliable
+Good speeds
+Data breach scandals, cyberattacks, and bad practices tarnish the company's name</t>
+  </si>
+  <si>
+    <t>The capabilities of some L3 switch models are not sufficient to qualify as L3.
+The network devices are reliable.
+Reviews on retail sites are very positive.</t>
+  </si>
+  <si>
+    <t>Reputation and market recognition
+At the forefront of technology
+Specialized technical support
+Long-lasting products
+More expensive than other options on the market</t>
+  </si>
+  <si>
+    <t>The software often crashes and requires constant reboots to recognize devices.
+User rating: Good</t>
+  </si>
+  <si>
+    <t>Resistant to environmental conditions
+Good performance
+Reliable devices
+Some users report software bugs</t>
+  </si>
+  <si>
+    <t>Very good user rating
+Good value for money
+100% Australian company
+Many users gave poor ratings due to logistics-related issues.</t>
   </si>
 </sst>
 </file>
@@ -1667,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,7 +1769,7 @@
         <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="3">
         <v>300</v>
@@ -1730,7 +1783,7 @@
         <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="3">
         <v>300</v>
@@ -1954,7 +2007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="332.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>52</v>
       </c>
@@ -1991,12 +2044,14 @@
       <c r="L11" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="N11" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
@@ -2034,7 +2089,7 @@
         <v>109</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>72</v>
@@ -2054,12 +2109,12 @@
         <v>2970</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.3">
       <c r="A16" s="50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B16" s="49">
         <f>D15</f>
@@ -2130,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="I3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2166,7 +2221,7 @@
         <v>49</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>42</v>
@@ -2204,132 +2259,138 @@
         <v>110</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="19">
         <v>175</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="I2" s="28">
         <v>0.999</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>111</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="16">
         <v>159</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I3" s="28">
         <v>0.999</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="15">
         <v>420</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="I4" s="17">
         <v>0.99950000000000006</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="M4" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="N4" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>257</v>
+      </c>
       <c r="O4" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
@@ -2346,12 +2407,12 @@
         <v>2520</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B10" s="48"/>
       <c r="C10" s="49">
@@ -2464,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2485,8 +2546,8 @@
     <col min="13" max="13" width="14" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.88671875" style="2" customWidth="1"/>
     <col min="15" max="15" width="13.44140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="24.33203125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14" style="2" customWidth="1"/>
+    <col min="16" max="16" width="27.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="23.88671875" style="2" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="2" customWidth="1"/>
     <col min="19" max="19" width="14.5546875" style="2" customWidth="1"/>
     <col min="20" max="16384" width="8.88671875" style="2"/>
@@ -2503,204 +2564,210 @@
         <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="P1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q1" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C2" s="13">
         <v>799</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="L2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="P2" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q2" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="T2"/>
       <c r="U2"/>
     </row>
     <row r="3" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C3" s="13">
         <v>719</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="P3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="30">
         <v>1765.61</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="I4" s="6">
         <v>256</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="P4" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q4" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="T4"/>
       <c r="U4"/>
     </row>
@@ -2718,7 +2785,7 @@
     </row>
     <row r="7" spans="1:21" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B7" s="39" t="s">
         <v>81</v>
@@ -2727,43 +2794,43 @@
         <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="K7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="L7" s="4" t="s">
+      <c r="M7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="N7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="O7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="Q7"/>
       <c r="R7"/>
@@ -2771,106 +2838,110 @@
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C8" s="13">
         <v>199</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" s="6">
         <v>256</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="O8" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="P8" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C9" s="13">
         <v>99</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" s="6">
         <v>512</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="O9" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="P9" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="Q9"/>
       <c r="R9"/>
       <c r="S9"/>
@@ -2897,7 +2968,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>50</v>
@@ -2906,34 +2977,34 @@
         <v>51</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K11" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="N11" s="4" t="s">
+      <c r="O11" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="R11"/>
       <c r="S11"/>
@@ -2942,99 +3013,103 @@
     </row>
     <row r="12" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C12" s="30">
         <v>745.8</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="N12" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="P12" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>264</v>
+      </c>
       <c r="T12"/>
       <c r="U12"/>
     </row>
     <row r="13" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C13" s="30">
         <v>394.8</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="L13" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="N13" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="P13" s="6"/>
+        <v>119</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C16"/>
@@ -3061,13 +3136,13 @@
       <c r="B20" s="42"/>
       <c r="C20" s="37"/>
       <c r="D20" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E20"/>
     </row>
     <row r="21" spans="1:9" ht="54" x14ac:dyDescent="0.35">
       <c r="A21" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B21" s="45" t="str">
         <f>B3</f>
@@ -3087,7 +3162,7 @@
     </row>
     <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.35">
       <c r="A22" s="44" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B22" s="45" t="str">
         <f>B2</f>
@@ -3107,7 +3182,7 @@
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B23" s="45" t="str">
         <f>B9</f>
@@ -3130,7 +3205,7 @@
     </row>
     <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B24" s="45" t="str">
         <f>B12</f>
@@ -3174,7 +3249,7 @@
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B27" s="57"/>
       <c r="C27" s="58">
@@ -3411,7 +3486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F905D68-4C2D-4182-A4B3-677631D2FDBD}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3441,7 +3516,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>30</v>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230001F5-8E44-4634-B7E5-1CBE378A1832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727C972A-F951-4CD2-B0BA-A41B5CDF560A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
@@ -1218,7 +1218,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1312,37 +1312,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1373,14 +1351,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2100,11 +2090,11 @@
         <f>B2</f>
         <v>Google Workspace for Business (Plus)</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="39">
         <f>B11</f>
         <v>5940</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="39">
         <f>C15/2</f>
         <v>2970</v>
       </c>
@@ -2113,10 +2103,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="41">
         <f>D15</f>
         <v>2970</v>
       </c>
@@ -2398,11 +2388,11 @@
         <f>B4</f>
         <v>business nbn Enterprise Ethernet</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="39">
         <f>D4</f>
         <v>420</v>
       </c>
-      <c r="D9" s="47">
+      <c r="D9" s="39">
         <f>C9*6</f>
         <v>2520</v>
       </c>
@@ -2411,11 +2401,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49">
+      <c r="B10" s="40"/>
+      <c r="C10" s="41">
         <f>D9</f>
         <v>2520</v>
       </c>
@@ -2523,16 +2513,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
-  <dimension ref="A1:U49"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" style="2" customWidth="1"/>
@@ -2557,7 +2547,7 @@
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -2610,7 +2600,7 @@
       <c r="A2" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="4" t="s">
         <v>242</v>
       </c>
       <c r="C2" s="13">
@@ -2665,7 +2655,7 @@
       <c r="A3" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C3" s="13">
@@ -2716,11 +2706,11 @@
       <c r="T3"/>
       <c r="U3"/>
     </row>
-    <row r="4" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="4" t="s">
         <v>181</v>
       </c>
       <c r="C4" s="30">
@@ -2772,120 +2762,86 @@
       <c r="U4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
       <c r="T5"/>
       <c r="U5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="40"/>
+      <c r="B6" s="11"/>
       <c r="T6"/>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="T7"/>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="13">
-        <v>199</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="6">
-        <v>256</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>262</v>
+        <v>175</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="Q8"/>
       <c r="R8"/>
@@ -2893,30 +2849,30 @@
       <c r="T8"/>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>249</v>
+    <row r="9" spans="1:21" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="C9" s="13">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="6">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>202</v>
@@ -2925,7 +2881,7 @@
         <v>203</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>206</v>
@@ -2940,7 +2896,7 @@
         <v>119</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
@@ -2948,158 +2904,161 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="40"/>
+    <row r="10" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="13">
+        <v>99</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="6">
+        <v>512</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>263</v>
+      </c>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:21" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N11" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>154</v>
-      </c>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="30">
-        <v>745.8</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>264</v>
-      </c>
+    <row r="12" spans="1:21" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="R12"/>
+      <c r="S12"/>
       <c r="T12"/>
       <c r="U12"/>
     </row>
     <row r="13" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>247</v>
+      <c r="B13" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C13" s="30">
-        <v>394.8</v>
+        <v>745.8</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>226</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>213</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>215</v>
+        <v>233</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>216</v>
@@ -3110,11 +3069,58 @@
       <c r="P13" s="6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
+      <c r="T13"/>
+      <c r="U13"/>
+    </row>
+    <row r="14" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="30">
+        <v>394.8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C17"/>
@@ -3131,155 +3137,149 @@
       <c r="D19"/>
       <c r="E19"/>
     </row>
-    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="36"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="E20"/>
-    </row>
-    <row r="21" spans="1:9" ht="54" x14ac:dyDescent="0.35">
-      <c r="A21" s="44" t="s">
+      <c r="E21"/>
+    </row>
+    <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="B21" s="45" t="str">
+      <c r="B22" s="37" t="str">
         <f>B3</f>
         <v>UniFi Switch Pro 24 PoE (USW-Pro-24-POE)</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C22" s="38">
         <f>C3</f>
         <v>719</v>
       </c>
-      <c r="D21" s="51">
+      <c r="D22" s="43">
         <v>2</v>
       </c>
-      <c r="E21" s="52">
-        <f>C21*D21</f>
+      <c r="E22" s="44">
+        <f>C22*D22</f>
         <v>1438</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.35">
-      <c r="A22" s="44" t="s">
+    <row r="23" spans="1:9" ht="54" x14ac:dyDescent="0.35">
+      <c r="A23" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="B22" s="45" t="str">
+      <c r="B23" s="37" t="str">
         <f>B2</f>
         <v>UniFi Switch Pro 48 PoE (USW-Pro-48-POE)</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C23" s="38">
         <f>C2</f>
         <v>799</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D23" s="43">
         <v>1</v>
       </c>
-      <c r="E22" s="52">
-        <f t="shared" ref="E22:E24" si="0">C22*D22</f>
+      <c r="E23" s="44">
+        <f t="shared" ref="E23:E25" si="0">C23*D23</f>
         <v>799</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="44" t="s">
+    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A24" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="45" t="str">
-        <f>B9</f>
+      <c r="B24" s="37" t="str">
+        <f>B10</f>
         <v>netgear wax630e</v>
       </c>
-      <c r="C23" s="46">
-        <f>C9</f>
+      <c r="C24" s="38">
+        <f>C10</f>
         <v>99</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D24" s="43">
         <v>4</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E24" s="44">
         <f t="shared" si="0"/>
         <v>396</v>
-      </c>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-    </row>
-    <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.35">
-      <c r="A24" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="B24" s="45" t="str">
-        <f>B12</f>
-        <v>4cabling  Cat 6A S/FTP</v>
-      </c>
-      <c r="C24" s="46">
-        <f>C12</f>
-        <v>745.8</v>
-      </c>
-      <c r="D24" s="51">
-        <v>1</v>
-      </c>
-      <c r="E24" s="52">
-        <f t="shared" si="0"/>
-        <v>745.8</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A25" s="36"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
+    <row r="25" spans="1:9" ht="36" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" s="37" t="str">
+        <f>B13</f>
+        <v>4cabling  Cat 6A S/FTP</v>
+      </c>
+      <c r="C25" s="38">
+        <f>C13</f>
+        <v>745.8</v>
+      </c>
+      <c r="D25" s="43">
+        <v>1</v>
+      </c>
+      <c r="E25" s="44">
+        <f t="shared" si="0"/>
+        <v>745.8</v>
+      </c>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25"/>
     </row>
     <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="54"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="55"/>
-      <c r="F26"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="47"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58">
-        <f>SUM(E21:E24)</f>
-        <v>3378.8</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="54"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
+      <c r="A28" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49">
+        <f>SUM(E22:E25)</f>
+        <v>3378.8</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="47"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="35"/>
-      <c r="D29"/>
-      <c r="E29"/>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.4">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="47"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
@@ -3287,8 +3287,8 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="35"/>
+      <c r="B30"/>
+      <c r="C30" s="33"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
@@ -3298,8 +3298,8 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="35"/>
+      <c r="B31"/>
+      <c r="C31" s="33"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -3309,8 +3309,8 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32"/>
-      <c r="B32" s="43"/>
-      <c r="C32"/>
+      <c r="B32"/>
+      <c r="C32" s="33"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33"/>
-      <c r="B33" s="43"/>
+      <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34"/>
-      <c r="B34" s="43"/>
+      <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35"/>
-      <c r="B35" s="43"/>
+      <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -3353,16 +3353,18 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36"/>
-      <c r="B36" s="43"/>
+      <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37"/>
-      <c r="B37" s="43"/>
+      <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -3371,7 +3373,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38"/>
-      <c r="B38" s="43"/>
+      <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -3380,7 +3382,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39"/>
-      <c r="B39" s="43"/>
+      <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
@@ -3389,7 +3391,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40"/>
-      <c r="B40" s="43"/>
+      <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -3398,7 +3400,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41"/>
-      <c r="B41" s="43"/>
+      <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
@@ -3407,7 +3409,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42"/>
-      <c r="B42" s="43"/>
+      <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
@@ -3416,7 +3418,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43"/>
-      <c r="B43" s="43"/>
+      <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -3425,7 +3427,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44"/>
-      <c r="B44" s="43"/>
+      <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
@@ -3434,7 +3436,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45"/>
-      <c r="B45" s="43"/>
+      <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
@@ -3443,7 +3445,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46"/>
-      <c r="B46" s="43"/>
+      <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -3452,7 +3454,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47"/>
-      <c r="B47" s="43"/>
+      <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -3461,7 +3463,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48"/>
-      <c r="B48" s="43"/>
+      <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -3470,12 +3472,21 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49"/>
-      <c r="B49" s="43"/>
+      <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3515,7 +3526,7 @@
       <c r="A2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="50" t="s">
         <v>156</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -3529,7 +3540,7 @@
       <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="25" t="s">
         <v>29</v>
       </c>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727C972A-F951-4CD2-B0BA-A41B5CDF560A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622A118B-5205-420E-BCE4-22FE1290EF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="267">
   <si>
     <t>Cloud Backup service</t>
   </si>
@@ -975,6 +975,12 @@
 Good value for money
 100% Australian company
 Many users gave poor ratings due to logistics-related issues.</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 / 24 / 36 months </t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1224,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1313,17 +1319,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,12 +1331,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1351,12 +1340,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1371,6 +1354,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1710,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2090,11 +2103,11 @@
         <f>B2</f>
         <v>Google Workspace for Business (Plus)</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="34">
         <f>B11</f>
         <v>5940</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="34">
         <f>C15/2</f>
         <v>2970</v>
       </c>
@@ -2103,10 +2116,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="36">
         <f>D15</f>
         <v>2970</v>
       </c>
@@ -2175,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="I3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2345,7 +2358,9 @@
       <c r="B4" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="D4" s="15">
         <v>420</v>
       </c>
@@ -2388,11 +2403,11 @@
         <f>B4</f>
         <v>business nbn Enterprise Ethernet</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="34">
         <f>D4</f>
         <v>420</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="34">
         <f>C9*6</f>
         <v>2520</v>
       </c>
@@ -2401,11 +2416,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36">
         <f>D9</f>
         <v>2520</v>
       </c>
@@ -2515,8 +2530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection sqref="A1:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2762,23 +2777,23 @@
       <c r="U4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
       <c r="T5"/>
       <c r="U5"/>
     </row>
@@ -2904,7 +2919,7 @@
       <c r="T9"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>193</v>
       </c>
@@ -3038,7 +3053,9 @@
       <c r="E13" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>265</v>
+      </c>
       <c r="G13" s="6" t="s">
         <v>228</v>
       </c>
@@ -3143,70 +3160,70 @@
       <c r="E20"/>
     </row>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="E21"/>
+      <c r="E21" s="46"/>
     </row>
     <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.35">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="B22" s="37" t="str">
+      <c r="B22" s="50" t="str">
         <f>B3</f>
         <v>UniFi Switch Pro 24 PoE (USW-Pro-24-POE)</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="51">
         <f>C3</f>
         <v>719</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="52">
         <v>2</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="53">
         <f>C22*D22</f>
         <v>1438</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="54" x14ac:dyDescent="0.35">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="B23" s="37" t="str">
+      <c r="B23" s="50" t="str">
         <f>B2</f>
         <v>UniFi Switch Pro 48 PoE (USW-Pro-48-POE)</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="51">
         <f>C2</f>
         <v>799</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="52">
         <v>1</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="53">
         <f t="shared" ref="E23:E25" si="0">C23*D23</f>
         <v>799</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="37" t="str">
+      <c r="B24" s="50" t="str">
         <f>B10</f>
         <v>netgear wax630e</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="51">
         <f>C10</f>
         <v>99</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="52">
         <v>4</v>
       </c>
-      <c r="E24" s="44">
+      <c r="E24" s="53">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
@@ -3215,21 +3232,21 @@
       <c r="I24"/>
     </row>
     <row r="25" spans="1:9" ht="36" x14ac:dyDescent="0.35">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="B25" s="37" t="str">
+      <c r="B25" s="50" t="str">
         <f>B13</f>
         <v>4cabling  Cat 6A S/FTP</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="51">
         <f>C13</f>
         <v>745.8</v>
       </c>
-      <c r="D25" s="43">
+      <c r="D25" s="52">
         <v>1</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="53">
         <f t="shared" si="0"/>
         <v>745.8</v>
       </c>
@@ -3238,48 +3255,48 @@
       <c r="I25"/>
     </row>
     <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="47"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="10"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="10"/>
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49">
+      <c r="B28" s="56"/>
+      <c r="C28" s="57">
         <f>SUM(E22:E25)</f>
         <v>3378.8</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="10"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
     </row>
     <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="47"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="40"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
@@ -3526,7 +3543,7 @@
       <c r="A2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="41" t="s">
         <v>156</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -3540,7 +3557,7 @@
       <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="25" t="s">
         <v>29</v>
       </c>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622A118B-5205-420E-BCE4-22FE1290EF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04369DD8-B7EE-43C6-B407-CAA5DF98445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
     <sheet name="ISP" sheetId="5" r:id="rId2"/>
     <sheet name="HW-Net" sheetId="6" r:id="rId3"/>
-    <sheet name="ReqVSMatrix" sheetId="7" r:id="rId4"/>
+    <sheet name="Availability" sheetId="8" r:id="rId4"/>
+    <sheet name="ReqVSMatrix" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="287">
   <si>
     <t>Cloud Backup service</t>
   </si>
@@ -572,9 +573,6 @@
     <t>Telstra</t>
   </si>
   <si>
-    <t>business nbn Enterprise Ethernet</t>
-  </si>
-  <si>
     <t>1000 Mbps / 1000 Mbps</t>
   </si>
   <si>
@@ -597,9 +595,6 @@
     <t>L2/L3 Managed Capability</t>
   </si>
   <si>
-    <t>95w - 16 ports</t>
-  </si>
-  <si>
     <t>CE, FCC, IC</t>
   </si>
   <si>
@@ -614,22 +609,6 @@
     <t>1000, Access Lists IPv4 MAC</t>
   </si>
   <si>
-    <t>Ethernet
-AR</t>
-  </si>
-  <si>
-    <t>Egress Rate Limit
-Flow Control
-Storm Control
-Multicast &amp; Broadcast Rate Limiting
-Jumbo Frames
-Port Mirroring
-LLDP-MED</t>
-  </si>
-  <si>
-    <t>Layer 2 PoE Switch</t>
-  </si>
-  <si>
     <t xml:space="preserve">2 years </t>
   </si>
   <si>
@@ -637,14 +616,6 @@
   </si>
   <si>
     <t>Backplane / throughput</t>
-  </si>
-  <si>
-    <t>Switching Capacity
-52 Gbps
-Total Non-Blocking Throughput
-26 Gbps
-Forwarding Rate
-39 Mpps</t>
   </si>
   <si>
     <t>VENDOR - Access Point</t>
@@ -810,9 +781,6 @@
   </si>
   <si>
     <t>PoE Compatibility</t>
-  </si>
-  <si>
-    <t>300m</t>
   </si>
   <si>
     <t xml:space="preserve"> Cat 6A S/FTP</t>
@@ -845,9 +813,6 @@
 RJ45-RJ45</t>
   </si>
   <si>
-    <t>UniFi Switch Pro 24 PoE (USW-Pro-24-POE)</t>
-  </si>
-  <si>
     <t>TOTAL COST</t>
   </si>
   <si>
@@ -869,34 +834,6 @@
     <t>UniFi</t>
   </si>
   <si>
-    <t>UniFi Switch Pro 48 PoE (USW-Pro-48-POE)</t>
-  </si>
-  <si>
-    <t>1 x GbE RJ45
-24  x (16 PoE+) 
-(1G/100M/10M)
-2 x 1G SFP 
-(1G)</t>
-  </si>
-  <si>
-    <t>1 x GbE RJ45
-48  x (40 Poe, 8 PoE+) 
-(1G/100M/10M)
-2 x 1G SFP 
-(1G)</t>
-  </si>
-  <si>
-    <t>Switching Capacity
-176 Gbps
-Total Non-Blocking Throughput
-88 Gbps
-Forwarding Rate
-131 Mpps</t>
-  </si>
-  <si>
-    <t>600w -40 PoE+; 8 PoE++</t>
-  </si>
-  <si>
     <t>4cabling CAT 5e</t>
   </si>
   <si>
@@ -909,17 +846,10 @@
     <t>Counting</t>
   </si>
   <si>
-    <t>4cabling  Cat 6A S/FTP</t>
-  </si>
-  <si>
     <t>6 MOTHS</t>
   </si>
   <si>
     <t>6 MONTHS</t>
-  </si>
-  <si>
-    <t>Gigabit SFP (fiber) ports (100M/1G) 1000BASE-X x2
-1xUplink 10 Gbp</t>
   </si>
   <si>
     <t>An office suite that's more than sufficient for cloud-focused businesses.
@@ -982,16 +912,149 @@
   <si>
     <t xml:space="preserve">12 / 24 / 36 months </t>
   </si>
+  <si>
+    <t>Product/Service</t>
+  </si>
+  <si>
+    <t>delivery time</t>
+  </si>
+  <si>
+    <t>fees</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>https://workspace.google.com/pricing.html?source=gafb-lp_meet-faq-en-AU&amp;hl=en-AU&amp;ga_region=japac&amp;ga_country=au&amp;ga_lang=en</t>
+  </si>
+  <si>
+    <t>Telstra business nbn Enterprise Ethernet</t>
+  </si>
+  <si>
+    <t>https://www.telstra.com.au/small-business/internet/nbn-enterprise-ethernet</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>USW-Pro-48-POE</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>USW-Pro-24-POE</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>2–3 business days</t>
+  </si>
+  <si>
+    <t>https://www.scorptec.com.au/product/networking/switches/80121-usw-pro-24-poe</t>
+  </si>
+  <si>
+    <t>Layer 3 Management PoE+</t>
+  </si>
+  <si>
+    <t>(40) GbE, 802.3at PoE+ RJ45 ports
+(8) GbE, 802.3bt PoE++ RJ45 ports
+(4) 10G SFP+ ports</t>
+  </si>
+  <si>
+    <t>Total Non-Blocking Throughput
+88 Gbps
+Switching Capacity
+176 Gbps
+Forwarding Rate
+130.944 Mpps</t>
+  </si>
+  <si>
+    <t>Web UI, SSH, HTTPS API
+Real-time, email, syslog export
+	TLS 1.2+, SSHv2, RBAC, RADIUS/802.1X</t>
+  </si>
+  <si>
+    <t>IEEE 802.1p / DSCP / WRR / SPQ</t>
+  </si>
+  <si>
+    <t>802.1X, MAC Auth Bypass, Guest VLAN
+DHCP Snooping, DAI, IPSG, BPDU Guard, Port Security
+VLANs, PVLANs, ACLs
+HTTPS, SSHv2, RBAC, 2FA
+Signed updates, rollback
+Syslog, SNMPv3, Event Alerts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600w 
+40 PoE+
+8 PoE++
+</t>
+  </si>
+  <si>
+    <t>1000m</t>
+  </si>
+  <si>
+    <t>(24) 10/100/1000 RJ45 Ports
+(2) 1/10G SFP+ Ethernet Ports</t>
+  </si>
+  <si>
+    <t>Total Non-Blocking Throughput
+44 Gbps
+Switching Capacity
+88 Gbps
+Forwarding Rate
+65.472 Mpps</t>
+  </si>
+  <si>
+    <t>(4) 1/10G SFP+ Ethernet Ports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2) 1/10G SFP+ Ethernet Ports
+</t>
+  </si>
+  <si>
+    <t>IEEE 802.1p, DSCP, WRR, SPQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600w 
+16 PoE+
+8 PoE++
+</t>
+  </si>
+  <si>
+    <t>1–2 business days</t>
+  </si>
+  <si>
+    <t>https://www.lmc.com.au/netgear-wax630e-ax7800-tri-band-access-point-wifi-6e-wax630e-100aus?srsltid=AfmBOopd9eCrZZd-9rv0qvRjzSjDf1SswzhmKCbhl0kWX2Z5hLCojeZP</t>
+  </si>
+  <si>
+    <t>Store Pickup</t>
+  </si>
+  <si>
+    <t>CAT6A S/FTP Cable on Reel w/ PVC Jacket | 305m Roll Blue</t>
+  </si>
+  <si>
+    <t>1200m</t>
+  </si>
+  <si>
+    <t>https://www.4cabling.com.au/cat-6a-s-ftp-cable-roll-305m-w-pvc-jacket-on-reel-blue.html#</t>
+  </si>
+  <si>
+    <t>pay and use</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1224,7 +1287,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,6 +1447,49 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1724,7 +1830,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:N16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2048,7 +2154,7 @@
         <v>73</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>72</v>
@@ -2092,7 +2198,7 @@
         <v>109</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>72</v>
@@ -2112,12 +2218,12 @@
         <v>2970</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B16" s="36">
         <f>D15</f>
@@ -2188,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2298,7 +2404,7 @@
         <v>122</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>120</v>
@@ -2345,7 +2451,7 @@
         <v>119</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>120</v>
@@ -2356,25 +2462,25 @@
         <v>157</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>158</v>
+        <v>257</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D4" s="15">
         <v>420</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>129</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>161</v>
       </c>
       <c r="I4" s="17">
         <v>0.99950000000000006</v>
@@ -2392,16 +2498,16 @@
         <v>119</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="str">
         <f>B4</f>
-        <v>business nbn Enterprise Ethernet</v>
+        <v>Telstra business nbn Enterprise Ethernet</v>
       </c>
       <c r="C9" s="34">
         <f>D4</f>
@@ -2412,12 +2518,12 @@
         <v>2520</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="35" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="36">
@@ -2530,7 +2636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection sqref="A1:Q28"/>
     </sheetView>
   </sheetViews>
@@ -2547,15 +2653,14 @@
     <col min="9" max="9" width="17.6640625" style="2" customWidth="1"/>
     <col min="10" max="10" width="25.5546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.21875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="23" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24" style="2" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" customWidth="1"/>
     <col min="14" max="14" width="13.88671875" style="2" customWidth="1"/>
     <col min="15" max="15" width="13.44140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="27.5546875" style="2" customWidth="1"/>
     <col min="17" max="17" width="23.88671875" style="2" customWidth="1"/>
     <col min="18" max="18" width="15.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="14.5546875" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="2"/>
+    <col min="22" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -2569,7 +2674,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>134</v>
@@ -2578,7 +2683,7 @@
         <v>135</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>136</v>
@@ -2610,171 +2715,168 @@
       <c r="Q1" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+    </row>
+    <row r="2" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="C2" s="13">
-        <v>799</v>
+        <v>2349</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>119</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="T2"/>
-      <c r="U2"/>
-    </row>
-    <row r="3" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="C3" s="13">
-        <v>719</v>
+        <v>1479</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>170</v>
+        <v>266</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I3" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="I3" s="29" t="s">
+      <c r="J3" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>119</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="T3"/>
-      <c r="U3"/>
+        <v>245</v>
+      </c>
     </row>
     <row r="4" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C4" s="30">
         <v>1765.61</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I4" s="6">
         <v>256</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>119</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="T4"/>
-      <c r="U4"/>
+        <v>246</v>
+      </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="43"/>
@@ -2794,24 +2896,18 @@
       <c r="O5" s="45"/>
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
-      <c r="T5"/>
-      <c r="U5"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
-      <c r="T6"/>
-      <c r="U6"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="T7"/>
-      <c r="U7"/>
     </row>
     <row r="8" spans="1:21" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>81</v>
@@ -2823,22 +2919,22 @@
         <v>144</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>145</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>139</v>
@@ -2866,122 +2962,113 @@
     </row>
     <row r="9" spans="1:21" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C9" s="13">
         <v>199</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E9" s="6">
         <v>256</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="J9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="M9" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
     </row>
     <row r="10" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C10" s="13">
         <v>99</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E10" s="6">
         <v>512</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="L10" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="Q10"/>
       <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="Q11"/>
       <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
     </row>
     <row r="12" spans="1:21" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -2994,7 +3081,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>50</v>
@@ -3003,16 +3090,16 @@
         <v>51</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>150</v>
@@ -3039,104 +3126,102 @@
     </row>
     <row r="13" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="C13" s="30">
-        <v>745.8</v>
+        <v>1496</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>233</v>
-      </c>
       <c r="K13" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="T13"/>
-      <c r="U13"/>
+        <v>249</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1316</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C14" s="30">
-        <v>394.8</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="N14" s="6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3164,53 +3249,53 @@
       <c r="B21" s="47"/>
       <c r="C21" s="48"/>
       <c r="D21" s="49" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E21" s="46"/>
     </row>
     <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.35">
       <c r="A22" s="50" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B22" s="50" t="str">
         <f>B3</f>
-        <v>UniFi Switch Pro 24 PoE (USW-Pro-24-POE)</v>
+        <v>USW-Pro-24-POE</v>
       </c>
       <c r="C22" s="51">
         <f>C3</f>
-        <v>719</v>
+        <v>1479</v>
       </c>
       <c r="D22" s="52">
         <v>2</v>
       </c>
       <c r="E22" s="53">
         <f>C22*D22</f>
-        <v>1438</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="54" x14ac:dyDescent="0.35">
       <c r="A23" s="50" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B23" s="50" t="str">
         <f>B2</f>
-        <v>UniFi Switch Pro 48 PoE (USW-Pro-48-POE)</v>
+        <v>USW-Pro-48-POE</v>
       </c>
       <c r="C23" s="51">
         <f>C2</f>
-        <v>799</v>
+        <v>2349</v>
       </c>
       <c r="D23" s="52">
         <v>1</v>
       </c>
       <c r="E23" s="53">
         <f t="shared" ref="E23:E25" si="0">C23*D23</f>
-        <v>799</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="50" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B24" s="50" t="str">
         <f>B10</f>
@@ -3233,22 +3318,22 @@
     </row>
     <row r="25" spans="1:9" ht="36" x14ac:dyDescent="0.35">
       <c r="A25" s="50" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B25" s="50" t="str">
         <f>B13</f>
-        <v>4cabling  Cat 6A S/FTP</v>
+        <v>CAT6A S/FTP Cable on Reel w/ PVC Jacket | 305m Roll Blue</v>
       </c>
       <c r="C25" s="51">
         <f>C13</f>
-        <v>745.8</v>
+        <v>1496</v>
       </c>
       <c r="D25" s="52">
         <v>1</v>
       </c>
       <c r="E25" s="53">
         <f t="shared" si="0"/>
-        <v>745.8</v>
+        <v>1496</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -3277,12 +3362,12 @@
     </row>
     <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="56" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B28" s="56"/>
       <c r="C28" s="57">
         <f>SUM(E22:E25)</f>
-        <v>3378.8</v>
+        <v>7199</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="10"/>
@@ -3511,6 +3596,239 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB76D32E-DC44-466D-A71A-443D9992CBC7}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="62" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="62" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="110.21875" style="62" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="str">
+        <f>'Cloud-S'!B2</f>
+        <v>Google Workspace for Business (Plus)</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="68">
+        <f>'Cloud-S'!B16</f>
+        <v>2970</v>
+      </c>
+      <c r="E2" s="64">
+        <v>0</v>
+      </c>
+      <c r="F2" s="61" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="58" t="str">
+        <f>ISP!B4</f>
+        <v>Telstra business nbn Enterprise Ethernet</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="68">
+        <f>ISP!C10</f>
+        <v>2520</v>
+      </c>
+      <c r="E3" s="64">
+        <v>0</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="str">
+        <f>'HW-Net'!B2</f>
+        <v>USW-Pro-48-POE</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="68">
+        <f>'HW-Net'!C2</f>
+        <v>2349</v>
+      </c>
+      <c r="E4" s="64">
+        <v>17</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="str">
+        <f>'HW-Net'!B3</f>
+        <v>USW-Pro-24-POE</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="68">
+        <f>'HW-Net'!C3</f>
+        <v>1479</v>
+      </c>
+      <c r="E5" s="64">
+        <v>17</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="str">
+        <f>'HW-Net'!B10</f>
+        <v>netgear wax630e</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="68">
+        <f>'HW-Net'!C10</f>
+        <v>99</v>
+      </c>
+      <c r="E6" s="64">
+        <v>0</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="58" t="str">
+        <f>'HW-Net'!B13</f>
+        <v>CAT6A S/FTP Cable on Reel w/ PVC Jacket | 305m Roll Blue</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>263</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="69">
+        <f>'HW-Net'!C13</f>
+        <v>1496</v>
+      </c>
+      <c r="E7" s="64">
+        <v>0</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="67"/>
+    </row>
+    <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="67"/>
+    </row>
+    <row r="10" spans="1:6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A10" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="70">
+        <f>SUM(D2:D7)</f>
+        <v>10913</v>
+      </c>
+      <c r="E10" s="70">
+        <f>SUM(E2:E7)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="74"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+    </row>
+    <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="74"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="71">
+        <f>D10+E10</f>
+        <v>10947</v>
+      </c>
+      <c r="E12" s="72"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="74"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="A10:A13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{E581D07F-2DF0-43A8-BB18-A176F523CD47}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{5EED0F08-EEF3-41D3-93AD-27FCD3F5AFE3}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{92C1B8D2-A16D-460F-9202-B04540535CC9}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{49022709-FF8E-4349-9689-10520C144DDC}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{8D9BC3FD-2021-4810-824A-1C6FFA61636A}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{FDBD65CF-EC91-4EFB-B737-DE17C747AC4C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F905D68-4C2D-4182-A4B3-677631D2FDBD}">
   <dimension ref="A1:D6"/>
   <sheetViews>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04369DD8-B7EE-43C6-B407-CAA5DF98445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CF2A30-19DC-402D-80EF-41D31BCC44D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -1829,7 +1829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -2636,8 +2636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection sqref="A1:Q28"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3599,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB76D32E-DC44-466D-A71A-443D9992CBC7}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CF2A30-19DC-402D-80EF-41D31BCC44D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F36FE-6BD2-4C38-8293-7890ACD66515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="291">
   <si>
     <t>Cloud Backup service</t>
   </si>
@@ -595,9 +595,6 @@
     <t>L2/L3 Managed Capability</t>
   </si>
   <si>
-    <t>CE, FCC, IC</t>
-  </si>
-  <si>
     <t>802.1X Control
 MAC-Based ACLs &amp; Device Isolation
 IP-Based ACLs &amp; Network Isolation
@@ -644,9 +641,6 @@
   </si>
   <si>
     <t> 24 x Gigabit SFP + 2 x Combo Gigabit Ethernet/Gigabit SFP + 2 x Gigabit SFP (Uplink)</t>
-  </si>
-  <si>
-    <t>ISO 14001, ISO 9001, RoHS, REACH, CE, FCC</t>
   </si>
   <si>
     <t>Switching Capacity  
@@ -958,11 +952,6 @@
     <t>Layer 3 Management PoE+</t>
   </si>
   <si>
-    <t>(40) GbE, 802.3at PoE+ RJ45 ports
-(8) GbE, 802.3bt PoE++ RJ45 ports
-(4) 10G SFP+ ports</t>
-  </si>
-  <si>
     <t>Total Non-Blocking Throughput
 88 Gbps
 Switching Capacity
@@ -1043,6 +1032,42 @@
   </si>
   <si>
     <t>pay and use</t>
+  </si>
+  <si>
+    <t>Standards</t>
+  </si>
+  <si>
+    <t>AS/CA S008:2020 Requirements for Customer Cabling Products</t>
+  </si>
+  <si>
+    <t>(40) GbE, 802.3at PoE+ RJ45 ports
+(8) GbE, 802.3bt PoE++ RJ45 ports
+(4) 10G SFP+ ports
+IEEE 802.1p, RFC 2474, algoritmos WRR/SPQ</t>
+  </si>
+  <si>
+    <t>ISO/IEC 11801:2011, ANSI/TIA/EIA-568-C.2 Cat 6A, EN 50173-1/2, IEC 61935-2
+AS/NZS ISO/IEC 11801, AS/NZS 3080, AS/CA S009</t>
+  </si>
+  <si>
+    <t>CE, FCC, IC
+IEEE 802.3ae, IEEE 802.3z, SFP+ MSA
+RFC 791, RFC 4293, IEEE 802.1X
+ACMA Technical Standards, AS/NZS 3080, AS/NZS ISO/IEC 27001/27002</t>
+  </si>
+  <si>
+    <t>ISO 14001, ISO 9001, RoHS, REACH, CE, FCC
+IEEE 802.3ab, 802.3z, 802.3ae, SFP/SFP+ MSA
+IEEE 802.1X, IEEE 802.1D/802.1Q, RFC 4293
+RFC 791, RFC 4293
+RFC 2131, RFC 3118
+ACMA Technical Standards, AS/NZS 3080, AS/CA S009, AS/NZS ISO/IEC 27001/27002, AS/CA S008</t>
+  </si>
+  <si>
+    <t>IEEE 802.11ax, 802.11ac/n, 802.11v/k/r, IEEE 802.1X, IEEE 802.1Q, WPA3/2/1, HTTPS/TLS
+AS/NZS ISO/IEC 27001/27002, AS/CA S008, ACMA Technical Standards
+IEEE 802.3bt, 802.3af/at, 802.3ab/z/ae, SFP/SFP+ MSA
+IEEE 802.1X, 802.1D/1Q, RFC 2131/3118, RFC 4293, TLS/HTTPS</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1312,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1367,9 +1392,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1489,6 +1511,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1829,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1843,7 +1877,7 @@
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.44140625" style="1" customWidth="1"/>
@@ -1871,7 +1905,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1955,7 +1989,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2117,7 +2151,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="332.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>52</v>
       </c>
       <c r="B11" s="15">
@@ -2154,7 +2188,7 @@
         <v>73</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>72</v>
@@ -2198,7 +2232,7 @@
         <v>109</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>72</v>
@@ -2209,23 +2243,23 @@
         <f>B2</f>
         <v>Google Workspace for Business (Plus)</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="33">
         <f>B11</f>
         <v>5940</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="33">
         <f>C15/2</f>
         <v>2970</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="B16" s="36">
+      <c r="A16" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="35">
         <f>D15</f>
         <v>2970</v>
       </c>
@@ -2292,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2313,10 +2347,11 @@
     <col min="13" max="13" width="15.5546875" style="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="1" customWidth="1"/>
     <col min="15" max="15" width="18.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="23.21875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
@@ -2362,8 +2397,11 @@
       <c r="O1" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -2404,13 +2442,16 @@
         <v>122</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="P2" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>111</v>
       </c>
@@ -2451,21 +2492,24 @@
         <v>119</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="P3" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
         <v>157</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D4" s="15">
         <v>420</v>
@@ -2498,68 +2542,71 @@
         <v>119</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P4" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="str">
         <f>B4</f>
         <v>Telstra business nbn Enterprise Ethernet</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="33">
         <f>D4</f>
         <v>420</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <f>C9*6</f>
         <v>2520</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35">
         <f>D9</f>
         <v>2520</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -2634,10 +2681,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
-  <dimension ref="A1:U50"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AE119" sqref="AE119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2647,7 +2694,7 @@
     <col min="3" max="3" width="19.21875" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.77734375" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="23.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" style="2" customWidth="1"/>
@@ -2659,11 +2706,10 @@
     <col min="15" max="15" width="13.44140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="27.5546875" style="2" customWidth="1"/>
     <col min="17" max="17" width="23.88671875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="2"/>
+    <col min="21" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -2683,7 +2729,7 @@
         <v>135</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>136</v>
@@ -2715,199 +2761,199 @@
       <c r="Q1" s="4" t="s">
         <v>133</v>
       </c>
+      <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
-      <c r="U1"/>
-    </row>
-    <row r="2" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>233</v>
+    </row>
+    <row r="2" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>231</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="74">
+        <v>2349</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="K2" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="L2" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="M2" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="N2" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="75" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="13">
-        <v>2349</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C3" s="74">
+        <v>1479</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="75" t="s">
+        <v>288</v>
+      </c>
+      <c r="G3" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="K3" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="L3" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="M3" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="N3" s="75" t="s">
+        <v>166</v>
+      </c>
+      <c r="O3" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q3" s="75" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="77">
+        <v>1765.61</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="H4" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="I4" s="75">
+        <v>256</v>
+      </c>
+      <c r="J4" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="K4" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="P4" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1479</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="I3" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C4" s="30">
-        <v>1765.61</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="I4" s="6">
-        <v>256</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q4" s="75" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:21" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>81</v>
@@ -2919,22 +2965,22 @@
         <v>144</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>145</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>139</v>
@@ -2954,123 +3000,125 @@
       <c r="P8" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Q8"/>
+      <c r="Q8" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="R8"/>
       <c r="S8"/>
       <c r="T8"/>
-      <c r="U8"/>
-    </row>
-    <row r="9" spans="1:21" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C9" s="13">
         <v>199</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" s="6">
         <v>256</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q9"/>
-      <c r="R9"/>
-    </row>
-    <row r="10" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>187</v>
+        <v>245</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>185</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C10" s="13">
         <v>99</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10" s="6">
         <v>512</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>202</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q10"/>
-      <c r="R10"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="Q11"/>
-      <c r="R11"/>
-    </row>
-    <row r="12" spans="1:21" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -3081,7 +3129,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>50</v>
@@ -3090,16 +3138,16 @@
         <v>51</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>150</v>
@@ -3118,110 +3166,118 @@
       </c>
       <c r="P12" s="4" t="s">
         <v>154</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
-      <c r="U12"/>
-    </row>
-    <row r="13" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>205</v>
+    </row>
+    <row r="13" spans="1:20" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>203</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C13" s="30">
+        <v>280</v>
+      </c>
+      <c r="C13" s="29">
         <v>1496</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="I13" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>223</v>
-      </c>
       <c r="N13" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="259.2" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1316</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C14" s="30">
-        <v>1316</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="L14" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="N14" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3245,70 +3301,70 @@
       <c r="E20"/>
     </row>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49" t="s">
-        <v>237</v>
-      </c>
-      <c r="E21" s="46"/>
-    </row>
-    <row r="22" spans="1:9" ht="54" x14ac:dyDescent="0.35">
-      <c r="A22" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="B22" s="50" t="str">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A22" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="49" t="str">
         <f>B3</f>
         <v>USW-Pro-24-POE</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="50">
         <f>C3</f>
         <v>1479</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="51">
         <v>2</v>
       </c>
-      <c r="E22" s="53">
+      <c r="E22" s="52">
         <f>C22*D22</f>
         <v>2958</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="54" x14ac:dyDescent="0.35">
-      <c r="A23" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="B23" s="50" t="str">
+    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="49" t="str">
         <f>B2</f>
         <v>USW-Pro-48-POE</v>
       </c>
-      <c r="C23" s="51">
+      <c r="C23" s="50">
         <f>C2</f>
         <v>2349</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="51">
         <v>1</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="52">
         <f t="shared" ref="E23:E25" si="0">C23*D23</f>
         <v>2349</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24" s="50" t="str">
+      <c r="A24" s="49" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="49" t="str">
         <f>B10</f>
         <v>netgear wax630e</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="50">
         <f>C10</f>
         <v>99</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="51">
         <v>4</v>
       </c>
-      <c r="E24" s="53">
+      <c r="E24" s="52">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
@@ -3316,22 +3372,22 @@
       <c r="H24"/>
       <c r="I24"/>
     </row>
-    <row r="25" spans="1:9" ht="36" x14ac:dyDescent="0.35">
-      <c r="A25" s="50" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="50" t="str">
+    <row r="25" spans="1:9" ht="54" x14ac:dyDescent="0.35">
+      <c r="A25" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="49" t="str">
         <f>B13</f>
         <v>CAT6A S/FTP Cable on Reel w/ PVC Jacket | 305m Roll Blue</v>
       </c>
-      <c r="C25" s="51">
+      <c r="C25" s="50">
         <f>C13</f>
         <v>1496</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="51">
         <v>1</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="52">
         <f t="shared" si="0"/>
         <v>1496</v>
       </c>
@@ -3340,20 +3396,20 @@
       <c r="I25"/>
     </row>
     <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="10"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="10"/>
       <c r="F27"/>
       <c r="G27"/>
@@ -3361,15 +3417,15 @@
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57">
+      <c r="A28" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56">
         <f>SUM(E22:E25)</f>
         <v>7199</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="10"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -3377,11 +3433,11 @@
       <c r="I28"/>
     </row>
     <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="40"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
@@ -3390,7 +3446,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
-      <c r="C30" s="33"/>
+      <c r="C30" s="32"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
@@ -3401,7 +3457,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
-      <c r="C31" s="33"/>
+      <c r="C31" s="32"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -3412,7 +3468,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
-      <c r="C32" s="33"/>
+      <c r="C32" s="32"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -3605,211 +3661,211 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="62" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="62" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="110.21875" style="62" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="62"/>
+    <col min="1" max="1" width="31.6640625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="61" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="61" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="110.21875" style="61" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="59" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>237</v>
-      </c>
-      <c r="C1" s="58" t="s">
+      <c r="F1" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>255</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="str">
+      <c r="A2" s="57" t="str">
         <f>'Cloud-S'!B2</f>
         <v>Google Workspace for Business (Plus)</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="68">
+      <c r="B2" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="67">
         <f>'Cloud-S'!B16</f>
         <v>2970</v>
       </c>
-      <c r="E2" s="64">
+      <c r="E2" s="63">
         <v>0</v>
       </c>
-      <c r="F2" s="61" t="s">
-        <v>256</v>
+      <c r="F2" s="60" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="58" t="str">
+      <c r="A3" s="57" t="str">
         <f>ISP!B4</f>
         <v>Telstra business nbn Enterprise Ethernet</v>
       </c>
-      <c r="B3" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="D3" s="68">
+      <c r="B3" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="67">
         <f>ISP!C10</f>
         <v>2520</v>
       </c>
-      <c r="E3" s="64">
+      <c r="E3" s="63">
         <v>0</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>258</v>
+      <c r="F3" s="60" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="str">
+      <c r="A4" s="57" t="str">
         <f>'HW-Net'!B2</f>
         <v>USW-Pro-48-POE</v>
       </c>
-      <c r="B4" s="63" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="68">
+      <c r="B4" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" s="67">
         <f>'HW-Net'!C2</f>
         <v>2349</v>
       </c>
-      <c r="E4" s="64">
+      <c r="E4" s="63">
         <v>17</v>
       </c>
-      <c r="F4" s="61" t="s">
-        <v>265</v>
+      <c r="F4" s="60" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="str">
+      <c r="A5" s="57" t="str">
         <f>'HW-Net'!B3</f>
         <v>USW-Pro-24-POE</v>
       </c>
-      <c r="B5" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="D5" s="68">
+      <c r="B5" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="67">
         <f>'HW-Net'!C3</f>
         <v>1479</v>
       </c>
-      <c r="E5" s="64">
+      <c r="E5" s="63">
         <v>17</v>
       </c>
-      <c r="F5" s="61" t="s">
-        <v>265</v>
+      <c r="F5" s="60" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="str">
+      <c r="A6" s="57" t="str">
         <f>'HW-Net'!B10</f>
         <v>netgear wax630e</v>
       </c>
-      <c r="B6" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="D6" s="68">
+      <c r="B6" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="67">
         <f>'HW-Net'!C10</f>
         <v>99</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="63">
         <v>0</v>
       </c>
-      <c r="F6" s="61" t="s">
-        <v>281</v>
+      <c r="F6" s="60" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="str">
+      <c r="A7" s="57" t="str">
         <f>'HW-Net'!B13</f>
         <v>CAT6A S/FTP Cable on Reel w/ PVC Jacket | 305m Roll Blue</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="69">
+      <c r="B7" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="68">
         <f>'HW-Net'!C13</f>
         <v>1496</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="63">
         <v>0</v>
       </c>
-      <c r="F7" s="61" t="s">
-        <v>285</v>
+      <c r="F7" s="60" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="67"/>
+      <c r="E8" s="66"/>
     </row>
     <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="67"/>
+      <c r="E9" s="66"/>
     </row>
     <row r="10" spans="1:6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="70">
+      <c r="A10" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="69">
         <f>SUM(D2:D7)</f>
         <v>10913</v>
       </c>
-      <c r="E10" s="70">
+      <c r="E10" s="69">
         <f>SUM(E2:E7)</f>
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="71">
+      <c r="A12" s="73"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="70">
         <f>D10+E10</f>
         <v>10947</v>
       </c>
-      <c r="E12" s="72"/>
+      <c r="E12" s="71"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3861,7 +3917,7 @@
       <c r="A2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>156</v>
       </c>
       <c r="C2" s="21" t="s">
@@ -3875,7 +3931,7 @@
       <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="25" t="s">
         <v>29</v>
       </c>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F36FE-6BD2-4C38-8293-7890ACD66515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1610D5A-1D70-4117-A7CE-7285AB69DEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -637,9 +637,6 @@
 Cisco Business 350 Series CBS350-24S-4G</t>
   </si>
   <si>
-    <t xml:space="preserve">L3 managed </t>
-  </si>
-  <si>
     <t> 24 x Gigabit SFP + 2 x Combo Gigabit Ethernet/Gigabit SFP + 2 x Gigabit SFP (Uplink)</t>
   </si>
   <si>
@@ -1068,6 +1065,9 @@
 AS/NZS ISO/IEC 27001/27002, AS/CA S008, ACMA Technical Standards
 IEEE 802.3bt, 802.3af/at, 802.3ab/z/ae, SFP/SFP+ MSA
 IEEE 802.1X, 802.1D/1Q, RFC 2131/3118, RFC 4293, TLS/HTTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3 </t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1312,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1348,19 +1348,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1392,9 +1383,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1513,16 +1501,37 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1864,7 +1873,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1905,10 +1914,10 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="71" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1922,7 +1931,7 @@
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1989,19 +1998,19 @@
       </c>
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="71" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -2010,13 +2019,13 @@
       <c r="G6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>61</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="71" t="s">
         <v>63</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -2028,16 +2037,16 @@
       <c r="M6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="71" t="s">
         <v>66</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="71" t="s">
         <v>58</v>
       </c>
       <c r="R6" s="6" t="s">
@@ -2048,16 +2057,16 @@
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="6" t="s">
@@ -2066,13 +2075,13 @@
       <c r="G7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="71" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>92</v>
       </c>
       <c r="K7" s="6" t="s">
@@ -2084,16 +2093,16 @@
       <c r="M7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="13" t="s">
         <v>96</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P7" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="13" t="s">
         <v>99</v>
       </c>
       <c r="R7" s="6" t="s">
@@ -2151,10 +2160,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" ht="332.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>5940</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2163,7 +2172,7 @@
       <c r="D11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="71">
         <v>100</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -2172,23 +2181,23 @@
       <c r="G11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="72">
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>238</v>
+      <c r="M11" s="71" t="s">
+        <v>237</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>72</v>
@@ -2207,7 +2216,7 @@
       <c r="D12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>102</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -2216,23 +2225,23 @@
       <c r="G12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>104</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>106</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M12" s="14" t="s">
-        <v>239</v>
+      <c r="M12" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>72</v>
@@ -2243,23 +2252,23 @@
         <f>B2</f>
         <v>Google Workspace for Business (Plus)</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="29">
         <f>B11</f>
         <v>5940</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="29">
         <f>C15/2</f>
         <v>2970</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
-        <v>225</v>
-      </c>
-      <c r="B16" s="35">
+      <c r="A16" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="31">
         <f>D15</f>
         <v>2970</v>
       </c>
@@ -2328,8 +2337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2398,7 +2407,7 @@
         <v>41</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2411,22 +2420,22 @@
       <c r="C2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="16">
         <v>175</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>124</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>115</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="25">
         <v>0.999</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -2438,17 +2447,17 @@
       <c r="L2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="71" t="s">
         <v>122</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="O2" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="O2" s="71" t="s">
         <v>120</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.3">
@@ -2461,94 +2470,94 @@
       <c r="C3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="73">
         <v>159</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>125</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>131</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="25">
         <v>0.999</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="13" t="s">
         <v>126</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="O3" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="O3" s="71" t="s">
         <v>120</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>157</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D4" s="15">
+        <v>248</v>
+      </c>
+      <c r="D4" s="14">
         <v>420</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="71" t="s">
         <v>158</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="74">
         <v>0.99950000000000006</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="71" t="s">
         <v>118</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>119</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="O4" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>161</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -2556,24 +2565,24 @@
         <f>B4</f>
         <v>Telstra business nbn Enterprise Ethernet</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="29">
         <f>D4</f>
         <v>420</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="29">
         <f>C9*6</f>
         <v>2520</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.3">
-      <c r="A10" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35">
+      <c r="A10" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31">
         <f>D9</f>
         <v>2520</v>
       </c>
@@ -2587,92 +2596,92 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="11"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B14" s="11"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B15" s="11"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="11"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="11"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="11"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
-      <c r="C24" s="18"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
-      <c r="C25" s="18"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="11"/>
-      <c r="C26" s="18"/>
+      <c r="C26" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2683,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AE119" sqref="AE119"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2766,182 +2775,182 @@
       <c r="T1"/>
     </row>
     <row r="2" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>231</v>
+      <c r="A2" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="74">
+        <v>257</v>
+      </c>
+      <c r="C2" s="75">
         <v>2349</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="G2" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="75" t="s">
-        <v>286</v>
-      </c>
-      <c r="F2" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" s="75" t="s">
+      <c r="H2" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="K2" s="79" t="s">
         <v>265</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="L2" s="76" t="s">
+        <v>267</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="N2" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q2" s="79" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="75">
+        <v>1479</v>
+      </c>
+      <c r="D3" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="H3" s="70" t="s">
         <v>273</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I3" s="77" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="75" t="s">
+      <c r="J3" s="79" t="s">
+        <v>274</v>
+      </c>
+      <c r="K3" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="L3" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="K2" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="L2" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="M2" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="N2" s="75" t="s">
+      <c r="M3" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="N3" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="O2" s="75" t="s">
+      <c r="O3" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="P2" s="75" t="s">
+      <c r="P3" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="75" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="74">
-        <v>1479</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="E3" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="G3" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="I3" s="76" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="K3" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="L3" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="M3" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="N3" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="O3" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="P3" s="75" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q3" s="75" t="s">
-        <v>243</v>
+      <c r="Q3" s="79" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="80">
         <v>1765.61</v>
       </c>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="E4" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="75" t="s">
+      <c r="F4" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="G4" s="75" t="s">
+      <c r="H4" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="75" t="s">
+      <c r="I4" s="79">
+        <v>256</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="76" t="s">
         <v>178</v>
       </c>
-      <c r="I4" s="75">
-        <v>256</v>
-      </c>
-      <c r="J4" s="75" t="s">
-        <v>163</v>
-      </c>
-      <c r="K4" s="75" t="s">
+      <c r="L4" s="79" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="L4" s="75" t="s">
+      <c r="N4" s="76" t="s">
         <v>181</v>
       </c>
-      <c r="M4" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="N4" s="75" t="s">
+      <c r="O4" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="O4" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="P4" s="75" t="s">
+      <c r="P4" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="75" t="s">
-        <v>244</v>
+      <c r="Q4" s="76" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
@@ -3001,7 +3010,7 @@
         <v>149</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R8"/>
       <c r="S8"/>
@@ -3009,108 +3018,108 @@
     </row>
     <row r="9" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="13">
+        <v>232</v>
+      </c>
+      <c r="C9" s="14">
         <v>199</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="D9" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="13">
         <v>256</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>190</v>
+      <c r="F9" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="L9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>245</v>
+      <c r="P9" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
-        <v>185</v>
+      <c r="A10" s="26" t="s">
+        <v>184</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="13">
+        <v>233</v>
+      </c>
+      <c r="C10" s="72">
         <v>99</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D10" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="71">
         <v>512</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>191</v>
+      <c r="F10" s="71" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="71" t="s">
+        <v>190</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="K10" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P10" s="6" t="s">
-        <v>246</v>
+      <c r="P10" s="71" t="s">
+        <v>245</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -3129,7 +3138,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>50</v>
@@ -3138,16 +3147,16 @@
         <v>51</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>150</v>
@@ -3168,116 +3177,116 @@
         <v>154</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
     </row>
     <row r="13" spans="1:20" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>203</v>
+      <c r="A13" s="26" t="s">
+        <v>202</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="78">
+        <v>1496</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C13" s="29">
-        <v>1496</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="71" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="71" t="s">
         <v>218</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="I13" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>221</v>
-      </c>
       <c r="N13" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="29">
+        <v>231</v>
+      </c>
+      <c r="C14" s="78">
         <v>1316</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="G14" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="L14" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="M14" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="K14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>208</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3301,70 +3310,70 @@
       <c r="E20"/>
     </row>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" s="45"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="B22" s="49" t="str">
+      <c r="A22" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="45" t="str">
         <f>B3</f>
         <v>USW-Pro-24-POE</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22" s="46">
         <f>C3</f>
         <v>1479</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="47">
         <v>2</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="48">
         <f>C22*D22</f>
         <v>2958</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="49" t="str">
+      <c r="A23" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="B23" s="45" t="str">
         <f>B2</f>
         <v>USW-Pro-48-POE</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="46">
         <f>C2</f>
         <v>2349</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="47">
         <v>1</v>
       </c>
-      <c r="E23" s="52">
+      <c r="E23" s="48">
         <f t="shared" ref="E23:E25" si="0">C23*D23</f>
         <v>2349</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="49" t="s">
-        <v>226</v>
-      </c>
-      <c r="B24" s="49" t="str">
+      <c r="A24" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="45" t="str">
         <f>B10</f>
         <v>netgear wax630e</v>
       </c>
-      <c r="C24" s="50">
+      <c r="C24" s="46">
         <f>C10</f>
         <v>99</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="47">
         <v>4</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="48">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
@@ -3373,21 +3382,21 @@
       <c r="I24"/>
     </row>
     <row r="25" spans="1:9" ht="54" x14ac:dyDescent="0.35">
-      <c r="A25" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="B25" s="49" t="str">
+      <c r="A25" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="45" t="str">
         <f>B13</f>
         <v>CAT6A S/FTP Cable on Reel w/ PVC Jacket | 305m Roll Blue</v>
       </c>
-      <c r="C25" s="50">
+      <c r="C25" s="46">
         <f>C13</f>
         <v>1496</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="47">
         <v>1</v>
       </c>
-      <c r="E25" s="52">
+      <c r="E25" s="48">
         <f t="shared" si="0"/>
         <v>1496</v>
       </c>
@@ -3396,20 +3405,20 @@
       <c r="I25"/>
     </row>
     <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="10"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
       <c r="E27" s="10"/>
       <c r="F27"/>
       <c r="G27"/>
@@ -3417,15 +3426,15 @@
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="55" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56">
+      <c r="A28" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52">
         <f>SUM(E22:E25)</f>
         <v>7199</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="10"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -3433,11 +3442,11 @@
       <c r="I28"/>
     </row>
     <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="35"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
@@ -3446,7 +3455,7 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30"/>
       <c r="B30"/>
-      <c r="C30" s="32"/>
+      <c r="C30" s="28"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
@@ -3457,7 +3466,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31"/>
       <c r="B31"/>
-      <c r="C31" s="32"/>
+      <c r="C31" s="28"/>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
@@ -3468,7 +3477,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
-      <c r="C32" s="32"/>
+      <c r="C32" s="28"/>
       <c r="D32"/>
       <c r="E32"/>
       <c r="F32"/>
@@ -3661,211 +3670,211 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="61" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="61" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="61" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="61" customWidth="1"/>
-    <col min="6" max="6" width="110.21875" style="61" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="61"/>
+    <col min="1" max="1" width="31.6640625" style="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="57" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="57" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="110.21875" style="57" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="58" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="C1" s="57" t="s">
+      <c r="D1" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="57" t="s">
+      <c r="F1" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="str">
+      <c r="A2" s="53" t="str">
         <f>'Cloud-S'!B2</f>
         <v>Google Workspace for Business (Plus)</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="67">
+      <c r="B2" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="63">
         <f>'Cloud-S'!B16</f>
         <v>2970</v>
       </c>
-      <c r="E2" s="63">
+      <c r="E2" s="59">
         <v>0</v>
       </c>
-      <c r="F2" s="60" t="s">
-        <v>254</v>
+      <c r="F2" s="56" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="str">
+      <c r="A3" s="53" t="str">
         <f>ISP!B4</f>
         <v>Telstra business nbn Enterprise Ethernet</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="C3" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="67">
+      <c r="B3" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="63">
         <f>ISP!C10</f>
         <v>2520</v>
       </c>
-      <c r="E3" s="63">
+      <c r="E3" s="59">
         <v>0</v>
       </c>
-      <c r="F3" s="60" t="s">
-        <v>256</v>
+      <c r="F3" s="56" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="str">
+      <c r="A4" s="53" t="str">
         <f>'HW-Net'!B2</f>
         <v>USW-Pro-48-POE</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="67">
+      <c r="B4" s="58" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="63">
         <f>'HW-Net'!C2</f>
         <v>2349</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="59">
         <v>17</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>263</v>
+      <c r="F4" s="56" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="str">
+      <c r="A5" s="53" t="str">
         <f>'HW-Net'!B3</f>
         <v>USW-Pro-24-POE</v>
       </c>
-      <c r="B5" s="62" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="67">
+      <c r="B5" s="58" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="63">
         <f>'HW-Net'!C3</f>
         <v>1479</v>
       </c>
-      <c r="E5" s="63">
+      <c r="E5" s="59">
         <v>17</v>
       </c>
-      <c r="F5" s="60" t="s">
-        <v>263</v>
+      <c r="F5" s="56" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="str">
+      <c r="A6" s="53" t="str">
         <f>'HW-Net'!B10</f>
         <v>netgear wax630e</v>
       </c>
-      <c r="B6" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="67">
+      <c r="B6" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="63">
         <f>'HW-Net'!C10</f>
         <v>99</v>
       </c>
-      <c r="E6" s="63">
+      <c r="E6" s="59">
         <v>0</v>
       </c>
-      <c r="F6" s="60" t="s">
-        <v>278</v>
+      <c r="F6" s="56" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="str">
+      <c r="A7" s="53" t="str">
         <f>'HW-Net'!B13</f>
         <v>CAT6A S/FTP Cable on Reel w/ PVC Jacket | 305m Roll Blue</v>
       </c>
-      <c r="B7" s="62" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="68">
+      <c r="B7" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="64">
         <f>'HW-Net'!C13</f>
         <v>1496</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="59">
         <v>0</v>
       </c>
-      <c r="F7" s="60" t="s">
-        <v>282</v>
+      <c r="F7" s="56" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="66"/>
+      <c r="E8" s="62"/>
     </row>
     <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="66"/>
+      <c r="E9" s="62"/>
     </row>
     <row r="10" spans="1:6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="73" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="69">
+      <c r="A10" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="65">
         <f>SUM(D2:D7)</f>
         <v>10913</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="65">
         <f>SUM(E2:E7)</f>
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="73"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
     </row>
     <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="70">
+      <c r="A12" s="69"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="66">
         <f>D10+E10</f>
         <v>10947</v>
       </c>
-      <c r="E12" s="71"/>
+      <c r="E12" s="67"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="73"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3903,7 +3912,7 @@
       <c r="A1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -3914,13 +3923,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3928,14 +3937,14 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="25" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3943,13 +3952,13 @@
       <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="23" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3960,10 +3969,10 @@
       <c r="B5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="20" t="s">
         <v>29</v>
       </c>
     </row>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1610D5A-1D70-4117-A7CE-7285AB69DEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B16C3-5796-4173-9802-90A67DE0AA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="5" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="HW-Net" sheetId="6" r:id="rId3"/>
     <sheet name="Availability" sheetId="8" r:id="rId4"/>
     <sheet name="ReqVSMatrix" sheetId="7" r:id="rId5"/>
+    <sheet name="InterMatrix" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="295">
   <si>
     <t>Cloud Backup service</t>
   </si>
@@ -1068,6 +1069,18 @@
   </si>
   <si>
     <t xml:space="preserve">L3 </t>
+  </si>
+  <si>
+    <t>Dependency Matrix: Products/Software</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>Coupled</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1164,6 +1177,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,7 +1343,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1533,6 +1564,39 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1872,7 +1936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2337,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC9BB152-C575-441E-85DE-E365BB70FAC5}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2429,7 +2493,7 @@
       <c r="F2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="81" t="s">
         <v>115</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -2441,7 +2505,7 @@
       <c r="J2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="71" t="s">
         <v>118</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -2479,7 +2543,7 @@
       <c r="F3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="81" t="s">
         <v>131</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -2529,7 +2593,7 @@
       <c r="F4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="81" t="s">
         <v>159</v>
       </c>
       <c r="H4" s="13" t="s">
@@ -2560,7 +2624,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="str">
         <f>B4</f>
         <v>Telstra business nbn Enterprise Ethernet</v>
@@ -2692,8 +2756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="F13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3035,7 +3099,7 @@
       <c r="F9" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="71" t="s">
         <v>189</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -3088,7 +3152,7 @@
       <c r="F10" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="13" t="s">
         <v>190</v>
       </c>
       <c r="H10" s="6" t="s">
@@ -3996,4 +4060,123 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE578E0-EE4A-4C5B-AB4F-CAC8796150B8}">
+  <dimension ref="A2:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" style="82" customWidth="1"/>
+    <col min="2" max="6" width="10.109375" style="57" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="57" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" s="82" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="I3" s="86" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="I4" s="87" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="I5" s="88" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="53" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
+    </row>
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="84"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753B16C3-5796-4173-9802-90A67DE0AA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A9C27F-EAB7-4EBD-844C-BB3510DC57C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="5" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="304">
   <si>
     <t>Cloud Backup service</t>
   </si>
@@ -1071,9 +1071,6 @@
     <t xml:space="preserve">L3 </t>
   </si>
   <si>
-    <t>Dependency Matrix: Products/Software</t>
-  </si>
-  <si>
     <t>parallel</t>
   </si>
   <si>
@@ -1081,6 +1078,36 @@
   </si>
   <si>
     <t>Coupled</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Desktops</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Google Workspace</t>
+  </si>
+  <si>
+    <t>Telstra nbn</t>
+  </si>
+  <si>
+    <t>Netgear WAX630E</t>
+  </si>
+  <si>
+    <t>CAT6A Cable</t>
+  </si>
+  <si>
+    <t>Router Enterprise</t>
+  </si>
+  <si>
+    <t>WIFI-Modem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Component / Dependency </t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1119,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1343,7 +1370,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1444,19 +1471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1504,98 +1519,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1981,7 +1990,7 @@
       <c r="A2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="62" t="s">
         <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2065,16 +2074,16 @@
       <c r="A6" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="62" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="62" t="s">
         <v>56</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -2089,7 +2098,7 @@
       <c r="I6" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="71" t="s">
+      <c r="J6" s="62" t="s">
         <v>63</v>
       </c>
       <c r="K6" s="6" t="s">
@@ -2101,7 +2110,7 @@
       <c r="M6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="62" t="s">
         <v>66</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -2110,7 +2119,7 @@
       <c r="P6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Q6" s="71" t="s">
+      <c r="Q6" s="62" t="s">
         <v>58</v>
       </c>
       <c r="R6" s="6" t="s">
@@ -2124,7 +2133,7 @@
       <c r="B7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="62" t="s">
         <v>86</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -2139,7 +2148,7 @@
       <c r="G7" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="62" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="6" t="s">
@@ -2163,7 +2172,7 @@
       <c r="O7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="71" t="s">
+      <c r="P7" s="62" t="s">
         <v>98</v>
       </c>
       <c r="Q7" s="13" t="s">
@@ -2236,7 +2245,7 @@
       <c r="D11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="71">
+      <c r="E11" s="62">
         <v>100</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -2245,22 +2254,22 @@
       <c r="G11" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="72">
+      <c r="H11" s="63">
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="62" t="s">
         <v>71</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="71" t="s">
+      <c r="M11" s="62" t="s">
         <v>237</v>
       </c>
       <c r="N11" s="6" t="s">
@@ -2493,7 +2502,7 @@
       <c r="F2" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="6" t="s">
         <v>115</v>
       </c>
       <c r="H2" s="6" t="s">
@@ -2505,19 +2514,19 @@
       <c r="J2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="62" t="s">
         <v>118</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="71" t="s">
+      <c r="M2" s="62" t="s">
         <v>122</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="O2" s="71" t="s">
+      <c r="O2" s="62" t="s">
         <v>120</v>
       </c>
       <c r="P2" s="6" t="s">
@@ -2534,7 +2543,7 @@
       <c r="C3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="73">
+      <c r="D3" s="64">
         <v>159</v>
       </c>
       <c r="E3" s="14" t="s">
@@ -2543,7 +2552,7 @@
       <c r="F3" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="6" t="s">
         <v>131</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -2567,7 +2576,7 @@
       <c r="N3" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="O3" s="71" t="s">
+      <c r="O3" s="62" t="s">
         <v>120</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -2587,25 +2596,25 @@
       <c r="D4" s="14">
         <v>420</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="62" t="s">
         <v>158</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="6" t="s">
         <v>159</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="65">
         <v>0.99950000000000006</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K4" s="71" t="s">
+      <c r="K4" s="62" t="s">
         <v>118</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -2756,7 +2765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2845,49 +2854,49 @@
       <c r="B2" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C2" s="75">
+      <c r="C2" s="63">
         <v>2349</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="62" t="s">
         <v>285</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="L2" s="76" t="s">
+      <c r="L2" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="M2" s="76" t="s">
+      <c r="M2" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="N2" s="79" t="s">
+      <c r="N2" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="O2" s="76" t="s">
+      <c r="O2" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="P2" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="13" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2898,49 +2907,49 @@
       <c r="B3" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="63">
         <v>1479</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="I3" s="77" t="s">
+      <c r="I3" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="J3" s="79" t="s">
+      <c r="J3" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="K3" s="79" t="s">
+      <c r="K3" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="L3" s="76" t="s">
+      <c r="L3" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="M3" s="76" t="s">
+      <c r="M3" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="N3" s="79" t="s">
+      <c r="N3" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="O3" s="76" t="s">
+      <c r="O3" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="P3" s="70" t="s">
+      <c r="P3" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Q3" s="79" t="s">
+      <c r="Q3" s="13" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2951,70 +2960,56 @@
       <c r="B4" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="68">
         <v>1765.61</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="62" t="s">
         <v>290</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="62" t="s">
         <v>288</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="79">
+      <c r="I4" s="13">
         <v>256</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="79" t="s">
+      <c r="L4" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="62" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="36"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
@@ -3099,7 +3094,7 @@
       <c r="F9" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="62" t="s">
         <v>189</v>
       </c>
       <c r="H9" s="6" t="s">
@@ -3140,16 +3135,16 @@
       <c r="B10" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="63">
         <v>99</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="62">
         <v>512</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="62" t="s">
         <v>188</v>
       </c>
       <c r="G10" s="13" t="s">
@@ -3179,7 +3174,7 @@
       <c r="O10" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P10" s="71" t="s">
+      <c r="P10" s="62" t="s">
         <v>245</v>
       </c>
       <c r="Q10" s="10" t="s">
@@ -3254,28 +3249,28 @@
       <c r="B13" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C13" s="78">
+      <c r="C13" s="67">
         <v>1496</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="62" t="s">
         <v>223</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -3307,7 +3302,7 @@
       <c r="B14" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="67">
         <v>1316</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3334,10 +3329,10 @@
       <c r="K14" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="L14" s="71" t="s">
+      <c r="L14" s="62" t="s">
         <v>208</v>
       </c>
-      <c r="M14" s="71" t="s">
+      <c r="M14" s="62" t="s">
         <v>215</v>
       </c>
       <c r="N14" s="6" t="s">
@@ -3374,70 +3369,70 @@
       <c r="E20"/>
     </row>
     <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="44" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="B22" s="45" t="str">
+      <c r="B22" s="41" t="str">
         <f>B3</f>
         <v>USW-Pro-24-POE</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="42">
         <f>C3</f>
         <v>1479</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="43">
         <v>2</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="44">
         <f>C22*D22</f>
         <v>2958</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="45" t="str">
+      <c r="B23" s="41" t="str">
         <f>B2</f>
         <v>USW-Pro-48-POE</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="42">
         <f>C2</f>
         <v>2349</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="43">
         <v>1</v>
       </c>
-      <c r="E23" s="48">
+      <c r="E23" s="44">
         <f t="shared" ref="E23:E25" si="0">C23*D23</f>
         <v>2349</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="B24" s="45" t="str">
+      <c r="B24" s="41" t="str">
         <f>B10</f>
         <v>netgear wax630e</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="42">
         <f>C10</f>
         <v>99</v>
       </c>
-      <c r="D24" s="47">
+      <c r="D24" s="43">
         <v>4</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="44">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
@@ -3446,21 +3441,21 @@
       <c r="I24"/>
     </row>
     <row r="25" spans="1:9" ht="54" x14ac:dyDescent="0.35">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="B25" s="45" t="str">
+      <c r="B25" s="41" t="str">
         <f>B13</f>
         <v>CAT6A S/FTP Cable on Reel w/ PVC Jacket | 305m Roll Blue</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="42">
         <f>C13</f>
         <v>1496</v>
       </c>
-      <c r="D25" s="47">
+      <c r="D25" s="43">
         <v>1</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="44">
         <f t="shared" si="0"/>
         <v>1496</v>
       </c>
@@ -3469,20 +3464,20 @@
       <c r="I25"/>
     </row>
     <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="50"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="10"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
     </row>
     <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="10"/>
       <c r="F27"/>
       <c r="G27"/>
@@ -3490,15 +3485,15 @@
       <c r="I27"/>
     </row>
     <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52">
+      <c r="B28" s="47"/>
+      <c r="C28" s="48">
         <f>SUM(E22:E25)</f>
         <v>7199</v>
       </c>
-      <c r="D28" s="50"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="10"/>
       <c r="F28"/>
       <c r="G28"/>
@@ -3728,217 +3723,217 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB76D32E-DC44-466D-A71A-443D9992CBC7}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="57" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="57" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="110.21875" style="57" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="31.6640625" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="53" customWidth="1"/>
+    <col min="6" max="6" width="110.21875" style="53" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="49" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="str">
+      <c r="A2" s="49" t="str">
         <f>'Cloud-S'!B2</f>
         <v>Google Workspace for Business (Plus)</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="63">
+      <c r="D2" s="58">
         <f>'Cloud-S'!B16</f>
         <v>2970</v>
       </c>
-      <c r="E2" s="59">
+      <c r="E2" s="54">
         <v>0</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="52" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="str">
+      <c r="A3" s="49" t="str">
         <f>ISP!B4</f>
         <v>Telstra business nbn Enterprise Ethernet</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="58">
         <f>ISP!C10</f>
         <v>2520</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="54">
         <v>0</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="52" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="str">
+      <c r="A4" s="49" t="str">
         <f>'HW-Net'!B2</f>
         <v>USW-Pro-48-POE</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="58">
         <f>'HW-Net'!C2</f>
         <v>2349</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="54">
         <v>17</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="52" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="str">
+      <c r="A5" s="49" t="str">
         <f>'HW-Net'!B3</f>
         <v>USW-Pro-24-POE</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="63">
+      <c r="D5" s="58">
         <f>'HW-Net'!C3</f>
         <v>1479</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="54">
         <v>17</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="52" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="str">
+      <c r="A6" s="49" t="str">
         <f>'HW-Net'!B10</f>
         <v>netgear wax630e</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="58">
         <f>'HW-Net'!C10</f>
         <v>99</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="54">
         <v>0</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="52" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="str">
+      <c r="A7" s="49" t="str">
         <f>'HW-Net'!B13</f>
         <v>CAT6A S/FTP Cable on Reel w/ PVC Jacket | 305m Roll Blue</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="59">
         <f>'HW-Net'!C13</f>
         <v>1496</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="54">
         <v>0</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="52" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="62"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="62"/>
+      <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="65">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="60">
         <f>SUM(D2:D7)</f>
         <v>10913</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E10" s="60">
         <f>SUM(E2:E7)</f>
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="69"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="66">
+      <c r="A12" s="75"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="73">
         <f>D10+E10</f>
         <v>10947</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="69"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3961,8 +3956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F905D68-4C2D-4182-A4B3-677631D2FDBD}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3990,7 +3985,7 @@
       <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="76" t="s">
         <v>156</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -4004,7 +3999,7 @@
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="22" t="s">
         <v>29</v>
       </c>
@@ -4064,117 +4059,324 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE578E0-EE4A-4C5B-AB4F-CAC8796150B8}">
-  <dimension ref="A2:I8"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" style="82" customWidth="1"/>
-    <col min="2" max="6" width="10.109375" style="57" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="57" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="1" width="12" style="78" customWidth="1"/>
+    <col min="2" max="6" width="10.109375" style="53" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="53" customWidth="1"/>
+    <col min="8" max="12" width="8.88671875" style="53"/>
+    <col min="13" max="13" width="10" style="53" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="53"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="82" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="69" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="80" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+    </row>
+    <row r="3" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="80" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="M3" s="83" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="53" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="72"/>
+      <c r="F4" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="71"/>
+      <c r="M4" s="84" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="80" t="s">
         <v>259</v>
       </c>
-      <c r="F2" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="I3" s="86" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="I4" s="87" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="71"/>
+      <c r="M5" s="85" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>257</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="I5" s="88" t="s">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="80" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="H6" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="71"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="80" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="71"/>
+    </row>
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="72"/>
+      <c r="H8" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="80" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="85"/>
-    </row>
-    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="84"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="J9" s="72"/>
+      <c r="K9" s="71"/>
+    </row>
+    <row r="10" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="80" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="81" t="s">
+        <v>296</v>
+      </c>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="82" t="s">
+        <v>296</v>
+      </c>
+      <c r="K10" s="71"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="80" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="82" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+    </row>
+    <row r="21" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L22" s="79"/>
+    </row>
+    <row r="23" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L23" s="79"/>
+    </row>
+    <row r="24" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L24" s="79"/>
+    </row>
+    <row r="25" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L25" s="79"/>
+    </row>
+    <row r="26" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L26" s="79"/>
+    </row>
+    <row r="27" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L27" s="79"/>
+    </row>
+    <row r="28" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L28" s="79"/>
+    </row>
+    <row r="29" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L29" s="79"/>
+    </row>
+    <row r="30" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L30" s="79"/>
+    </row>
+    <row r="31" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="L31" s="79"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A9C27F-EAB7-4EBD-844C-BB3510DC57C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10E56AA-DACC-40BD-9B49-90FBC2583DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -523,9 +523,6 @@
     <t>Enterprise-Grade Security Features</t>
   </si>
   <si>
-    <t>Power over Ethernet (PoE/PoE+) Support (if required)</t>
-  </si>
-  <si>
     <t>Firmware Updates &amp; Long-Term Support</t>
   </si>
   <si>
@@ -1108,6 +1105,9 @@
   </si>
   <si>
     <t xml:space="preserve">Component / Dependency </t>
+  </si>
+  <si>
+    <t>Power over Ethernet (PoE/PoE+) Support</t>
   </si>
 </sst>
 </file>
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2270,7 +2270,7 @@
         <v>73</v>
       </c>
       <c r="M11" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>72</v>
@@ -2314,7 +2314,7 @@
         <v>109</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>72</v>
@@ -2334,12 +2334,12 @@
         <v>2970</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="42" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" s="31">
         <f>D15</f>
@@ -2411,7 +2411,7 @@
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2480,7 +2480,7 @@
         <v>41</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2524,13 +2524,13 @@
         <v>122</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O2" s="62" t="s">
         <v>120</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="216" x14ac:dyDescent="0.3">
@@ -2574,39 +2574,39 @@
         <v>119</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O3" s="62" t="s">
         <v>120</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4" s="14">
         <v>420</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>129</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>159</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>160</v>
       </c>
       <c r="I4" s="65">
         <v>0.99950000000000006</v>
@@ -2624,13 +2624,13 @@
         <v>119</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
@@ -2647,12 +2647,12 @@
         <v>2520</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="31">
@@ -2765,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2791,7 +2791,7 @@
     <col min="21" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>46</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>134</v>
@@ -2811,7 +2811,7 @@
         <v>135</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>136</v>
@@ -2829,13 +2829,13 @@
         <v>140</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>143</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>132</v>
@@ -2849,161 +2849,161 @@
     </row>
     <row r="2" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="63">
         <v>2349</v>
       </c>
       <c r="D2" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="G2" s="62" t="s">
+      <c r="H2" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="I2" s="66" t="s">
+      <c r="L2" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" s="62" t="s">
         <v>164</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="L2" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="M2" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="O2" s="62" t="s">
-        <v>165</v>
       </c>
       <c r="P2" s="6" t="s">
         <v>119</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" s="63">
         <v>1479</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E3" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" s="62" t="s">
         <v>270</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>271</v>
-      </c>
       <c r="H3" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="K3" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>266</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>274</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="O3" s="62" t="s">
         <v>164</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="L3" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="M3" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="O3" s="62" t="s">
-        <v>165</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>119</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="68">
         <v>1765.61</v>
       </c>
       <c r="D4" s="62" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="62" t="s">
-        <v>288</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>177</v>
       </c>
       <c r="I4" s="13">
         <v>256</v>
       </c>
       <c r="J4" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K4" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="N4" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="M4" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="N4" s="62" t="s">
+      <c r="O4" s="13" t="s">
         <v>181</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="P4" s="6" t="s">
         <v>119</v>
       </c>
       <c r="Q4" s="62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -3021,7 +3021,7 @@
     </row>
     <row r="8" spans="1:20" s="11" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>81</v>
@@ -3030,46 +3030,46 @@
         <v>49</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>139</v>
       </c>
       <c r="L8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="N8" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>132</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R8"/>
       <c r="S8"/>
@@ -3077,108 +3077,108 @@
     </row>
     <row r="9" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" s="14">
         <v>199</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E9" s="13">
         <v>256</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="L9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="N9" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C10" s="63">
         <v>99</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E10" s="62">
         <v>512</v>
       </c>
       <c r="F10" s="62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H10" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>194</v>
-      </c>
       <c r="K10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="L10" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="N10" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>199</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P10" s="62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -3197,7 +3197,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>50</v>
@@ -3206,37 +3206,37 @@
         <v>51</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="P12" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="Q12" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="R12"/>
       <c r="S12"/>
@@ -3244,108 +3244,108 @@
     </row>
     <row r="13" spans="1:20" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" s="67">
         <v>1496</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E13" s="62" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="62" t="s">
-        <v>247</v>
-      </c>
-      <c r="G13" s="62" t="s">
+      <c r="H13" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="I13" s="62" t="s">
+        <v>220</v>
+      </c>
+      <c r="J13" s="62" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="I13" s="62" t="s">
-        <v>221</v>
-      </c>
-      <c r="J13" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>220</v>
-      </c>
       <c r="N13" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" s="67">
         <v>1316</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G14" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="L14" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="M14" s="62" t="s">
         <v>214</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="K14" s="6" t="s">
+      <c r="N14" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="L14" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="M14" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>119</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -3373,13 +3373,13 @@
       <c r="B21" s="38"/>
       <c r="C21" s="39"/>
       <c r="D21" s="40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="41" t="str">
         <f>B3</f>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" s="41" t="str">
         <f>B2</f>
@@ -3419,7 +3419,7 @@
     </row>
     <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B24" s="41" t="str">
         <f>B10</f>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="25" spans="1:9" ht="54" x14ac:dyDescent="0.35">
       <c r="A25" s="41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25" s="41" t="str">
         <f>B13</f>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A28" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="48">
@@ -3723,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB76D32E-DC44-466D-A71A-443D9992CBC7}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3740,22 +3740,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="50" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>249</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>250</v>
       </c>
       <c r="D1" s="49" t="s">
         <v>49</v>
       </c>
       <c r="E1" s="49" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="49" t="s">
         <v>251</v>
-      </c>
-      <c r="F1" s="49" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3764,10 +3764,10 @@
         <v>Google Workspace for Business (Plus)</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D2" s="58">
         <f>'Cloud-S'!B16</f>
@@ -3777,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3786,10 +3786,10 @@
         <v>Telstra business nbn Enterprise Ethernet</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D3" s="58">
         <f>ISP!C10</f>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3808,10 +3808,10 @@
         <v>USW-Pro-48-POE</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" s="58">
         <f>'HW-Net'!C2</f>
@@ -3821,7 +3821,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3830,10 +3830,10 @@
         <v>USW-Pro-24-POE</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D5" s="58">
         <f>'HW-Net'!C3</f>
@@ -3843,7 +3843,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3852,10 +3852,10 @@
         <v>netgear wax630e</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" s="58">
         <f>'HW-Net'!C10</f>
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3874,10 +3874,10 @@
         <v>CAT6A S/FTP Cable on Reel w/ PVC Jacket | 305m Roll Blue</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D7" s="59">
         <f>'HW-Net'!C13</f>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3898,7 +3898,7 @@
     </row>
     <row r="10" spans="1:6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
       <c r="A10" s="75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
@@ -3956,8 +3956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F905D68-4C2D-4182-A4B3-677631D2FDBD}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3986,7 +3986,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>30</v>
@@ -4062,7 +4062,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4077,45 +4077,45 @@
   <sheetData>
     <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="69" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B2" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -4129,11 +4129,11 @@
     </row>
     <row r="3" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="80" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
@@ -4144,21 +4144,21 @@
       <c r="J3" s="70"/>
       <c r="K3" s="70"/>
       <c r="M3" s="83" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
       <c r="D4" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E4" s="72"/>
       <c r="F4" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G4" s="72"/>
       <c r="H4" s="72"/>
@@ -4166,21 +4166,21 @@
       <c r="J4" s="72"/>
       <c r="K4" s="71"/>
       <c r="M4" s="84" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
       <c r="D5" s="72"/>
       <c r="E5" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G5" s="72"/>
       <c r="H5" s="72"/>
@@ -4188,29 +4188,29 @@
       <c r="J5" s="72"/>
       <c r="K5" s="71"/>
       <c r="M5" s="85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="80" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
       <c r="D6" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E6" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F6" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G6" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H6" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I6" s="72"/>
       <c r="J6" s="72"/>
@@ -4218,17 +4218,17 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="80" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
       <c r="F7" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G7" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H7" s="72"/>
       <c r="I7" s="72"/>
@@ -4237,18 +4237,18 @@
     </row>
     <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="80" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
       <c r="F8" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G8" s="72"/>
       <c r="H8" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I8" s="72"/>
       <c r="J8" s="72"/>
@@ -4256,45 +4256,45 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="80" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
       <c r="F9" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="72"/>
       <c r="I9" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J9" s="72"/>
       <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="80" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
       <c r="D10" s="72"/>
       <c r="E10" s="72"/>
       <c r="F10" s="81" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
       <c r="J10" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
@@ -4306,7 +4306,7 @@
       <c r="I11" s="71"/>
       <c r="J11" s="71"/>
       <c r="K11" s="82" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10E56AA-DACC-40BD-9B49-90FBC2583DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150B7825-3ACD-45E6-AB13-94A0C53B431A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
@@ -2765,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I34" sqref="A34:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
+++ b/TERM4/T4B1-ICTICT522-Evaluate_vendor_products_and_equipment/2-assessments/Vendors-Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Assessments\TERM4\T4B1-ICTICT522-Evaluate_vendor_products_and_equipment\2-assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150B7825-3ACD-45E6-AB13-94A0C53B431A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194BD11B-89CA-4F59-A29A-B2897A918B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{ABBEF023-E904-4281-9568-1F5D6C76FDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud-S" sheetId="2" r:id="rId1"/>
@@ -1568,6 +1568,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1582,30 +1606,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1945,8 +1945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE309197-8BCE-4D3F-A681-8473C7992CFF}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:R5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2765,8 +2765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544FF507-883C-4859-82B8-ECE60BC719EF}">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I34" sqref="A34:I35"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3897,7 +3897,7 @@
       <c r="E9" s="57"/>
     </row>
     <row r="10" spans="1:6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="83" t="s">
         <v>223</v>
       </c>
       <c r="B10" s="56"/>
@@ -3912,28 +3912,28 @@
       </c>
     </row>
     <row r="11" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="55"/>
       <c r="C11" s="55"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
-      <c r="D12" s="73">
+      <c r="D12" s="81">
         <f>D10+E10</f>
         <v>10947</v>
       </c>
-      <c r="E12" s="74"/>
+      <c r="E12" s="82"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3985,7 +3985,7 @@
       <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="84" t="s">
         <v>155</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -3999,7 +3999,7 @@
       <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="77"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="22" t="s">
         <v>29</v>
       </c>
@@ -4067,7 +4067,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" style="78" customWidth="1"/>
+    <col min="1" max="1" width="12" style="73" customWidth="1"/>
     <col min="2" max="6" width="10.109375" style="53" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" style="53" customWidth="1"/>
     <col min="8" max="12" width="8.88671875" style="53"/>
@@ -4111,10 +4111,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="69" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="77" t="s">
         <v>295</v>
       </c>
       <c r="C2" s="70"/>
@@ -4128,11 +4128,11 @@
       <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="75" t="s">
         <v>297</v>
       </c>
       <c r="B3" s="70"/>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="77" t="s">
         <v>295</v>
       </c>
       <c r="D3" s="70"/>
@@ -4143,21 +4143,21 @@
       <c r="I3" s="70"/>
       <c r="J3" s="70"/>
       <c r="K3" s="70"/>
-      <c r="M3" s="83" t="s">
+      <c r="M3" s="78" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="75" t="s">
         <v>256</v>
       </c>
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="77" t="s">
         <v>295</v>
       </c>
       <c r="E4" s="72"/>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="76" t="s">
         <v>295</v>
       </c>
       <c r="G4" s="72"/>
@@ -4165,21 +4165,21 @@
       <c r="I4" s="72"/>
       <c r="J4" s="72"/>
       <c r="K4" s="71"/>
-      <c r="M4" s="84" t="s">
+      <c r="M4" s="79" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="75" t="s">
         <v>258</v>
       </c>
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
       <c r="D5" s="72"/>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="81" t="s">
+      <c r="F5" s="76" t="s">
         <v>295</v>
       </c>
       <c r="G5" s="72"/>
@@ -4187,29 +4187,29 @@
       <c r="I5" s="72"/>
       <c r="J5" s="72"/>
       <c r="K5" s="71"/>
-      <c r="M5" s="85" t="s">
+      <c r="M5" s="80" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="75" t="s">
         <v>298</v>
       </c>
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="77" t="s">
         <v>295</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="76" t="s">
         <v>295</v>
       </c>
       <c r="I6" s="72"/>
@@ -4217,17 +4217,17 @@
       <c r="K6" s="71"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="75" t="s">
         <v>299</v>
       </c>
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
       <c r="D7" s="72"/>
       <c r="E7" s="72"/>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="77" t="s">
         <v>295</v>
       </c>
       <c r="H7" s="72"/>
@@ -4236,18 +4236,18 @@
       <c r="K7" s="71"/>
     </row>
     <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="75" t="s">
         <v>300</v>
       </c>
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
-      <c r="F8" s="81" t="s">
+      <c r="F8" s="76" t="s">
         <v>295</v>
       </c>
       <c r="G8" s="72"/>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="77" t="s">
         <v>295</v>
       </c>
       <c r="I8" s="72"/>
@@ -4255,45 +4255,45 @@
       <c r="K8" s="71"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="75" t="s">
         <v>293</v>
       </c>
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
       <c r="D9" s="72"/>
       <c r="E9" s="72"/>
-      <c r="F9" s="81" t="s">
+      <c r="F9" s="76" t="s">
         <v>295</v>
       </c>
       <c r="G9" s="72"/>
       <c r="H9" s="72"/>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="77" t="s">
         <v>295</v>
       </c>
       <c r="J9" s="72"/>
       <c r="K9" s="71"/>
     </row>
     <row r="10" spans="1:13" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="75" t="s">
         <v>301</v>
       </c>
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
       <c r="D10" s="72"/>
       <c r="E10" s="72"/>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="76" t="s">
         <v>295</v>
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
       <c r="I10" s="72"/>
-      <c r="J10" s="82" t="s">
+      <c r="J10" s="77" t="s">
         <v>295</v>
       </c>
       <c r="K10" s="71"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="75" t="s">
         <v>294</v>
       </c>
       <c r="B11" s="70"/>
@@ -4305,7 +4305,7 @@
       <c r="H11" s="71"/>
       <c r="I11" s="71"/>
       <c r="J11" s="71"/>
-      <c r="K11" s="82" t="s">
+      <c r="K11" s="77" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4349,34 +4349,34 @@
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L22" s="79"/>
+      <c r="L22" s="74"/>
     </row>
     <row r="23" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L23" s="79"/>
+      <c r="L23" s="74"/>
     </row>
     <row r="24" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L24" s="79"/>
+      <c r="L24" s="74"/>
     </row>
     <row r="25" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L25" s="79"/>
+      <c r="L25" s="74"/>
     </row>
     <row r="26" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L26" s="79"/>
+      <c r="L26" s="74"/>
     </row>
     <row r="27" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L27" s="79"/>
+      <c r="L27" s="74"/>
     </row>
     <row r="28" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L28" s="79"/>
+      <c r="L28" s="74"/>
     </row>
     <row r="29" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L29" s="79"/>
+      <c r="L29" s="74"/>
     </row>
     <row r="30" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L30" s="79"/>
+      <c r="L30" s="74"/>
     </row>
     <row r="31" spans="12:12" x14ac:dyDescent="0.3">
-      <c r="L31" s="79"/>
+      <c r="L31" s="74"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
